--- a/src/vendor/phpoffice/phpspreadsheet/src/PhpSpreadsheet/Calculation/locale/Translations.xlsx
+++ b/src/vendor/phpoffice/phpspreadsheet/src/PhpSpreadsheet/Calculation/locale/Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nooctal\src\PhpSpreadsheet\Calculation\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PHPOffice\PhpSpreadsheet\src\PhpSpreadsheet\Calculation\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7E357-BC02-47A7-9FD9-A058D7403D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87646DB-FEB4-4FCD-B053-44A5BED57F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="989" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="780" windowWidth="22368" windowHeight="13620" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Localisation" sheetId="4" r:id="rId1"/>
@@ -54,19 +54,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7E149540-45F7-45C7-8660-0EFBB7E0976B}</author>
-    <author>tc={E138FC8D-CF03-4DDC-BD49-5EE171CE701F}</author>
-    <author>tc={868F32B0-D73B-4C01-B4A5-8B50AC93BC60}</author>
-    <author>tc={61F71480-555F-404F-870F-9E9DFD41D0BC}</author>
-    <author>tc={C02634D7-5549-4BEC-A659-237ECEFD000F}</author>
-    <author>tc={BB970519-C2C0-4441-B343-F13D4CD744BE}</author>
-    <author>tc={915F01F8-B93F-4634-A958-C88DB26A4489}</author>
-    <author>tc={FF6A9B1E-172D-419A-AE26-363E0061308C}</author>
-    <author>tc={CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}</author>
-    <author>tc={3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}</author>
-    <author>tc={6005DC7F-03C9-4B1E-B445-787F12B5B7BC}</author>
-    <author>tc={5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}</author>
-    <author>tc={0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}</author>
-    <author>tc={4BB940B1-F984-4562-9953-F98AB6C81E95}</author>
   </authors>
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7E149540-45F7-45C7-8660-0EFBB7E0976B}">
@@ -77,456 +64,12 @@
     Should strictly be nb_no</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{E138FC8D-CF03-4DDC-BD49-5EE171CE701F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    information provided by web-junior (http://www.web-junior.net/)</t>
-      </text>
-    </comment>
-    <comment ref="S4" authorId="2" shapeId="0" xr:uid="{868F32B0-D73B-4C01-B4A5-8B50AC93BC60}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CUBEKPIMEMBER		= КУБЭЛЕМЕНТКИП				##	Возвращает свойство ключевого индикатора производительности «(КИП)» и отображает имя «КИП» в ячейке. «КИП» представляет собой количественную величину, такую как ежемесячная валовая прибыль или ежеквартальная текучесть кадров, используемой для контроля эффективности работы организации.
-CUBEMEMBER		= КУБЭЛЕМЕНТ				##	Возвращает элемент или кортеж из куба. Используется для проверки существования элемента или кортежа в кубе.
-CUBEMEMBERPROPERTY	= КУБСВОЙСТВОЭЛЕМЕНТА			##	Возвращает значение свойства элемента из куба. Используется для проверки существования имени элемента в кубе и возвращает указанное свойство для этого элемента.
-CUBERANKEDMEMBER	= КУБПОРЭЛЕМЕНТ				##	Возвращает n-ый или ранжированный элемент в множество. Используется для возвращения одного или нескольких элементов в множество, например, лучшего продавца или 10 лучших студентов.
-CUBESET			= КУБМНОЖ				##	Определяет вычислительное множество элементов или кортежей, отправляя на сервер выражение, которое создает множество, а затем возвращает его в Microsoft Office Excel.
-CUBESETCOUNT		= КУБЧИСЛОЭЛМНОЖ			##	Возвращает число элементов множества.
-CUBEVALUE		= КУБЗНАЧЕНИЕ				##	Возвращает обобщенное значение из куба.</t>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="3" shapeId="0" xr:uid="{61F71480-555F-404F-870F-9E9DFD41D0BC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    DAVERAGE		= ДСРЗНАЧ				##	Возвращает среднее значение выбранных записей базы данных.
-DCOUNT			= БСЧЁТ					##	Подсчитывает количество числовых ячеек в базе данных.
-DCOUNTA			= БСЧЁТА				##	Подсчитывает количество непустых ячеек в базе данных.
-DGET			= БИЗВЛЕЧЬ				##	Извлекает из базы данных одну запись, удовлетворяющую заданному условию.
-DMAX			= ДМАКС					##	Возвращает максимальное значение среди выделенных записей базы данных.
-DMIN			= ДМИН					##	Возвращает минимальное значение среди выделенных записей базы данных.
-DPRODUCT		= БДПРОИЗВЕД				##	Перемножает значения определенного поля в записях базы данных, удовлетворяющих условию.
-DSTDEV			= ДСТАНДОТКЛ				##	Оценивает стандартное отклонение по выборке для выделенных записей базы данных.
-DSTDEVP			= ДСТАНДОТКЛП				##	Вычисляет стандартное отклонение по генеральной совокупности для выделенных записей базы данных
-DSUM			= БДСУММ				##	Суммирует числа в поле для записей базы данных, удовлетворяющих условию.
-DVAR			= БДДИСП				##	Оценивает дисперсию по выборке из выделенных записей базы данных
-DVARP			= БДДИСПП				##	Вычисляет дисперсию по генеральной совокупности для выделенных записей базы данных</t>
-      </text>
-    </comment>
-    <comment ref="S27" authorId="4" shapeId="0" xr:uid="{C02634D7-5549-4BEC-A659-237ECEFD000F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    DATE			= ДАТА					##	Возвращает заданную дату в числовом формате.
-DATEVALUE		= ДАТАЗНАЧ				##	Преобразует дату из текстового формата в числовой формат.
-DAY			= ДЕНЬ					##	Преобразует дату в числовом формате в день месяца.
-DAYS360			= ДНЕЙ360				##	Вычисляет количество дней между двумя датами на основе 360-дневного года.
-EDATE			= ДАТАМЕС				##	Возвращает дату в числовом формате, отстоящую на заданное число месяцев вперед или назад от начальной даты.
-EOMONTH			= КОНМЕСЯЦА				##	Возвращает дату в числовом формате для последнего дня месяца, отстоящего вперед или назад на заданное число месяцев.
-HOUR			= ЧАС					##	Преобразует дату в числовом формате в часы.
-MINUTE			= МИНУТЫ				##	Преобразует дату в числовом формате в минуты.
-MONTH			= МЕСЯЦ					##	Преобразует дату в числовом формате в месяцы.
-NETWORKDAYS		= ЧИСТРАБДНИ				##	Возвращает количество рабочих дней между двумя датами.
-NOW			= ТДАТА					##	Возвращает текущую дату и время в числовом формате.
-SECOND			= СЕКУНДЫ				##	Преобразует дату в числовом формате в секунды.
-TIME			= ВРЕМЯ					##	Возвращает заданное время в числовом формате.
-TIMEVALUE		= ВРЕМЗНАЧ				##	Преобразует время из текстового формата в числовой формат.
-TODAY			= СЕГОДНЯ				##	Возвращает текущую дату в числовом формате.
-WEEKDAY			= ДЕНЬНЕД				##	Преобразует дату в числовом формате в день недели.
-WEEKNUM			= НОМНЕДЕЛИ				##	Преобразует числовое представление в число, которое указывает, на какую неделю года приходится указанная дата.
-WORKDAY			= РАБДЕНЬ				##	Возвращает дату в числовом формате, отстоящую вперед или назад на заданное количество рабочих дней.
-YEAR			= ГОД					##	Преобразует дату в числовом формате в год.
-YEARFRAC		= ДОЛЯГОДА				##	Возвращает долю года, которую составляет количество дней между начальной и конечной датами.</t>
-      </text>
-    </comment>
-    <comment ref="S58" authorId="5" shapeId="0" xr:uid="{BB970519-C2C0-4441-B343-F13D4CD744BE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    BESSELI			= БЕССЕЛЬ.I	 			##	Возвращает модифицированную функцию Бесселя In(x).
-BESSELJ			= БЕССЕЛЬ.J				##	Возвращает функцию Бесселя Jn(x).
-BESSELK			= БЕССЕЛЬ.K				##	Возвращает модифицированную функцию Бесселя Kn(x).
-BESSELY			= БЕССЕЛЬ.Y				##	Возвращает функцию Бесселя Yn(x).
-BIN2DEC			= ДВ.В.ДЕС				##	Преобразует двоичное число в десятичное.
-BIN2HEX			= ДВ.В.ШЕСТН				##	Преобразует двоичное число в шестнадцатеричное.
-BIN2OCT			= ДВ.В.ВОСЬМ				##	Преобразует двоичное число в восьмеричное.
-COMPLEX			= КОМПЛЕКСН				##	Преобразует коэффициенты при вещественной и мнимой частях комплексного числа в комплексное число.
-CONVERT			= ПРЕОБР				##	Преобразует число из одной системы единиц измерения в другую.
-DEC2BIN			= ДЕС.В.ДВ				##	Преобразует десятичное число в двоичное.
-DEC2HEX			= ДЕС.В.ШЕСТН				##	Преобразует десятичное число в шестнадцатеричное.
-DEC2OCT			= ДЕС.В.ВОСЬМ				##	Преобразует десятичное число в восьмеричное.
-DELTA			= ДЕЛЬТА				##	Проверяет равенство двух значений.
-ERF			= ФОШ					##	Возвращает функцию ошибки.
-ERFC			= ДФОШ					##	Возвращает дополнительную функцию ошибки.
-GESTEP			= ПОРОГ					##	Проверяет, не превышает ли данное число порогового значения.
-HEX2BIN			= ШЕСТН.В.ДВ				##	Преобразует шестнадцатеричное число в двоичное.
-HEX2DEC			= ШЕСТН.В.ДЕС				##	Преобразует шестнадцатеричное число в десятичное.
-HEX2OCT			= ШЕСТН.В.ВОСЬМ				##	Преобразует шестнадцатеричное число в восьмеричное.
-IMABS			= МНИМ.ABS				##	Возвращает абсолютную величину (модуль) комплексного числа.
-IMAGINARY		= МНИМ.ЧАСТЬ				##	Возвращает коэффициент при мнимой части комплексного числа.
-IMARGUMENT		= МНИМ.АРГУМЕНТ				##	Возвращает значение аргумента комплексного числа (тета) — угол, выраженный в радианах.
-IMCONJUGATE		= МНИМ.СОПРЯЖ				##	Возвращает комплексно-сопряженное комплексное число.
-IMCOS			= МНИМ.COS				##	Возвращает косинус комплексного числа.
-IMDIV			= МНИМ.ДЕЛ				##	Возвращает частное от деления двух комплексных чисел.
-IMEXP			= МНИМ.EXP				##	Возвращает экспоненту комплексного числа.
-IMLN			= МНИМ.LN				##	Возвращает натуральный логарифм комплексного числа.
-IMLOG10			= МНИМ.LOG10				##	Возвращает обычный (десятичный) логарифм комплексного числа.
-IMLOG2			= МНИМ.LOG2				##	Возвращает двоичный логарифм комплексного числа.
-IMPOWER			= МНИМ.СТЕПЕНЬ				##	Возвращает комплексное число, возведенное в целую степень.
-IMPRODUCT		= МНИМ.ПРОИЗВЕД				##	Возвращает произведение от 2 до 29 комплексных чисел.
-IMREAL			= МНИМ.ВЕЩ				##	Возвращает коэффициент при вещественной части комплексного числа.
-IMSIN			= МНИМ.SIN				##	Возвращает синус комплексного числа.
-IMSQRT			= МНИМ.КОРЕНЬ				##	Возвращает значение квадратного корня из комплексного числа.
-IMSUB			= МНИМ.РАЗН				##	Возвращает разность двух комплексных чисел.
-IMSUM			= МНИМ.СУММ				##	Возвращает сумму комплексных чисел.
-OCT2BIN			= ВОСЬМ.В.ДВ				##	Преобразует восьмеричное число в двоичное.
-OCT2DEC			= ВОСЬМ.В.ДЕС				##	Преобразует восьмеричное число в десятичное.
-OCT2HEX			= ВОСЬМ.В.ШЕСТН				##	Преобразует восьмеричное число в шестнадцатеричное.</t>
-      </text>
-    </comment>
-    <comment ref="S114" authorId="6" shapeId="0" xr:uid="{915F01F8-B93F-4634-A958-C88DB26A4489}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ACCRINT			= НАКОПДОХОД				##	Возвращает накопленный процент по ценным бумагам с периодической выплатой процентов.
-ACCRINTM		= НАКОПДОХОДПОГАШ			##	Возвращает накопленный процент по ценным бумагам, проценты по которым выплачиваются в срок погашения.
-AMORDEGRC		= АМОРУМ				##	Возвращает величину амортизации для каждого периода, используя коэффициент амортизации.
-AMORLINC		= АМОРУВ				##	Возвращает величину амортизации для каждого периода.
-COUPDAYBS		= ДНЕЙКУПОНДО				##	Возвращает количество дней от начала действия купона до даты соглашения.
-COUPDAYS		= ДНЕЙКУПОН				##	Возвращает число дней в периоде купона, содержащем дату соглашения.
-COUPDAYSNC		= ДНЕЙКУПОНПОСЛЕ			##	Возвращает число дней от даты соглашения до срока следующего купона.
-COUPNCD			= ДАТАКУПОНПОСЛЕ			##	Возвращает следующую дату купона после даты соглашения.
-COUPNUM			= ЧИСЛКУПОН				##	Возвращает количество купонов, которые могут быть оплачены между датой соглашения и сроком вступления в силу.
-COUPPCD			= ДАТАКУПОНДО				##	Возвращает предыдущую дату купона перед датой соглашения.
-CUMIPMT			= ОБЩПЛАТ				##	Возвращает общую выплату, произведенную между двумя периодическими выплатами.
-CUMPRINC		= ОБЩДОХОД				##	Возвращает общую выплату по займу между двумя периодами.
-DB			= ФУО					##	Возвращает величину амортизации актива для заданного периода, рассчитанную методом фиксированного уменьшения остатка.
-DDB			= ДДОБ					##	Возвращает величину амортизации актива за данный период, используя метод двойного уменьшения остатка или иной явно указанный метод.
-DISC			= СКИДКА				##	Возвращает норму скидки для ценных бумаг.
-DOLLARDE		= РУБЛЬ.ДЕС				##	Преобразует цену в рублях, выраженную в виде дроби, в цену в рублях, выраженную десятичным числом.
-DOLLARFR		= РУБЛЬ.ДРОБЬ				##	Преобразует цену в рублях, выраженную десятичным числом, в цену в рублях, выраженную в виде дроби.
-DURATION		= ДЛИТ					##	Возвращает ежегодную продолжительность действия ценных бумаг с периодическими выплатами по процентам.
-EFFECT			= ЭФФЕКТ				##	Возвращает действующие ежегодные процентные ставки.
-FV			= БС					##	Возвращает будущую стоимость инвестиции.
-FVSCHEDULE		= БЗРАСПИС				##	Возвращает будущую стоимость первоначальной основной суммы после начисления ряда сложных процентов.
-INTRATE			= ИНОРМА				##	Возвращает процентную ставку для полностью инвестированных ценных бумаг.
-IPMT			= ПРПЛТ					##	Возвращает величину выплаты прибыли на вложения за данный период.
-IRR			= ВСД					##	Возвращает внутреннюю ставку доходности для ряда потоков денежных средств.
-ISPMT			= ПРОЦПЛАТ				##	Вычисляет выплаты за указанный период инвестиции.
-MDURATION		= МДЛИТ					##	Возвращает модифицированную длительность Маколея для ценных бумаг с предполагаемой номинальной стоимостью 100 рублей.
-MIRR			= МВСД					##	Возвращает внутреннюю ставку доходности, при которой положительные и отрицательные денежные потоки имеют разные значения ставки.
-NOMINAL			= НОМИНАЛ				##	Возвращает номинальную годовую процентную ставку.
-NPER			= КПЕР					##	Возвращает общее количество периодов выплаты для данного вклада.
-NPV			= ЧПС					##	Возвращает чистую приведенную стоимость инвестиции, основанной на серии периодических денежных потоков и ставке дисконтирования.
-ODDFPRICE		= ЦЕНАПЕРВНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным первым периодом.
-ODDFYIELD		= ДОХОДПЕРВНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным первым периодом.
-ODDLPRICE		= ЦЕНАПОСЛНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным последним периодом.
-ODDLYIELD		= ДОХОДПОСЛНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным последним периодом.
-PMT			= ПЛТ					##	Возвращает величину выплаты за один период аннуитета.
-PPMT			= ОСПЛТ					##	Возвращает величину выплат в погашение основной суммы по инвестиции за заданный период.
-PRICE			= ЦЕНА					##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг, по которым производится периодическая выплата процентов.
-PRICEDISC		= ЦЕНАСКИДКА				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, на которые сделана скидка.
-PRICEMAT		= ЦЕНАПОГАШ				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, проценты по которым выплачиваются в срок погашения.
-PV			= ПС					##	Возвращает приведенную (к текущему моменту) стоимость инвестиции.
-RATE			= СТАВКА				##	Возвращает процентную ставку по аннуитету за один период.
-RECEIVED		= ПОЛУЧЕНО				##	Возвращает сумму, полученную к сроку погашения полностью обеспеченных ценных бумаг.
-SLN			= АПЛ					##	Возвращает величину линейной амортизации актива за один период.
-SYD			= АСЧ					##	Возвращает величину амортизации актива за данный период, рассчитанную методом суммы годовых чисел.
-TBILLEQ			= РАВНОКЧЕК				##	Возвращает эквивалентный облигации доход по казначейскому чеку.
-TBILLPRICE		= ЦЕНАКЧЕК				##	Возвращает цену за 100 рублей нарицательной стоимости для казначейского чека.
-TBILLYIELD		= ДОХОДКЧЕК				##	Возвращает доход по казначейскому чеку.
-VDB			= ПУО					##	Возвращает величину амортизации актива для указанного или частичного периода при использовании метода сокращающегося баланса.
-XIRR			= ЧИСТВНДОХ				##	Возвращает внутреннюю ставку доходности для графика денежных потоков, которые не обязательно носят периодический характер.
-XNPV			= ЧИСТНЗ				##	Возвращает чистую приведенную стоимость для денежных потоков, которые не обязательно являются периодическими.
-YIELD			= ДОХОД					##	Возвращает доход от ценных бумаг, по которым производятся периодические выплаты процентов.
-YIELDDISC		= ДОХОДСКИДКА				##	Возвращает годовой доход по ценным бумагам, на которые сделана скидка (пример — казначейские чеки).
-YIELDMAT		= ДОХОДПОГАШ				##	Возвращает годовой доход от ценных бумаг, проценты по которым выплачиваются в срок погашения.</t>
-      </text>
-    </comment>
-    <comment ref="S172" authorId="7" shapeId="0" xr:uid="{FF6A9B1E-172D-419A-AE26-363E0061308C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CELL			= ЯЧЕЙКА				##	Возвращает информацию о формате, расположении или содержимом ячейки.
-ERROR.TYPE		= ТИП.ОШИБКИ				##	Возвращает числовой код, соответствующий типу ошибки.
-INFO			= ИНФОРМ				##	Возвращает информацию о текущей операционной среде.
-ISBLANK			= ЕПУСТО				##	Возвращает значение ИСТИНА, если аргумент является ссылкой на пустую ячейку.
-ISERR			= ЕОШ					##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки, кроме #Н/Д.
-ISERROR			= ЕОШИБКА				##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки.
-ISEVEN			= ЕЧЁТН					##	Возвращает значение ИСТИНА, если значение аргумента является четным числом.
-ISLOGICAL		= ЕЛОГИЧ				##	Возвращает значение ИСТИНА, если аргумент ссылается на логическое значение.
-ISNA			= ЕНД					##	Возвращает значение ИСТИНА, если аргумент ссылается на значение ошибки #Н/Д.
-ISNONTEXT		= ЕНЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента не является текстом.
-ISNUMBER		= ЕЧИСЛО				##	Возвращает значение ИСТИНА, если аргумент ссылается на число.
-ISODD			= ЕНЕЧЁТ				##	Возвращает значение ИСТИНА, если значение аргумента является нечетным числом.
-ISREF			= ЕССЫЛКА				##	Возвращает значение ИСТИНА, если значение аргумента является ссылкой.
-ISTEXT			= ЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента является текстом.
-N			= Ч					##	Возвращает значение, преобразованное в число.
-NA			= НД					##	Возвращает значение ошибки #Н/Д.
-TYPE			= ТИП					##	Возвращает число, обозначающее тип данных значения.</t>
-      </text>
-    </comment>
-    <comment ref="S195" authorId="8" shapeId="0" xr:uid="{CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    AND			= И					##	Renvoie VRAI si tous ses arguments sont VRAI.
-FALSE			= ЛОЖЬ					##	Возвращает логическое значение ЛОЖЬ.
-IF			= ЕСЛИ					##	Выполняет проверку условия.
-IFERROR			= ЕСЛИОШИБКА				##	Возвращает введённое значение, если вычисление по формуле вызывает ошибку; в противном случае функция возвращает результат вычисления.
-NOT			= НЕ					##	Меняет логическое значение своего аргумента на противоположное.
-OR			= ИЛИ					##	Возвращает значение ИСТИНА, если хотя бы один аргумент имеет значение ИСТИНА.
-TRUE			= ИСТИНА				##	Возвращает логическое значение ИСТИНА.</t>
-      </text>
-    </comment>
-    <comment ref="S216" authorId="9" shapeId="0" xr:uid="{3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ADDRESS			= АДРЕС					##	Возвращает ссылку на отдельную ячейку листа в виде текста.
-AREAS			= ОБЛАСТИ				##	Возвращает количество областей в ссылке.
-CHOOSE			= ВЫБОР					##	Выбирает значение из списка значений по индексу.
-COLUMN			= СТОЛБЕЦ				##	Возвращает номер столбца, на который указывает ссылка.
-COLUMNS			= ЧИСЛСТОЛБ				##	Возвращает количество столбцов в ссылке.
-HLOOKUP			= ГПР					##	Ищет в первой строке массива и возвращает значение отмеченной ячейки
-HYPERLINK		= ГИПЕРССЫЛКА				##	Создает ссылку, открывающую документ, который находится на сервере сети, в интрасети или в Интернете.
-INDEX			= ИНДЕКС				##	Использует индекс для выбора значения из ссылки или массива.
-INDIRECT		= ДВССЫЛ				##	Возвращает ссылку, заданную текстовым значением.
-LOOKUP			= ПРОСМОТР				##	Ищет значения в векторе или массиве.
-MATCH			= ПОИСКПОЗ				##	Ищет значения в ссылке или массиве.
-OFFSET			= СМЕЩ					##	Возвращает смещение ссылки относительно заданной ссылки.
-ROW			= СТРОКА				##	Возвращает номер строки, определяемой ссылкой.
-ROWS			= ЧСТРОК				##	Возвращает количество строк в ссылке.
-RTD			= ДРВ					##	Извлекает данные реального времени из программ, поддерживающих автоматизацию COM (Программирование объектов. Стандартное средство для работы с объектами некоторого приложения из другого приложения или средства разработки. Программирование объектов (ранее называемое программированием OLE) является функцией модели COM (Component Object Model, модель компонентных объектов).).
-TRANSPOSE		= ТРАНСП				##	Возвращает транспонированный массив.
-VLOOKUP			= ВПР					##	Ищет значение в первом столбце массива и возвращает значение из ячейки в найденной строке и указанном столбце.</t>
-      </text>
-    </comment>
-    <comment ref="S224" authorId="10" shapeId="0" xr:uid="{6005DC7F-03C9-4B1E-B445-787F12B5B7BC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ##	Add-in and Automation functions				Функции надстроек и автоматизации
-##
-GETPIVOTDATA		= ПОЛУЧИТЬ.ДАННЫЕ.СВОДНОЙ.ТАБЛИЦЫ	##	Возвращает данные, хранящиеся в отчете сводной таблицы.</t>
-      </text>
-    </comment>
-    <comment ref="S244" authorId="11" shapeId="0" xr:uid="{5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ABS			= ABS					##	Возвращает модуль (абсолютную величину) числа.
-ACOS			= ACOS					##	Возвращает арккосинус числа.
-ACOSH			= ACOSH					##	Возвращает гиперболический арккосинус числа.
-ASIN			= ASIN					##	Возвращает арксинус числа.
-ASINH			= ASINH					##	Возвращает гиперболический арксинус числа.
-ATAN			= ATAN					##	Возвращает арктангенс числа.
-ATAN2			= ATAN2					##	Возвращает арктангенс для заданных координат x и y.
-ATANH			= ATANH					##	Возвращает гиперболический арктангенс числа.
-CEILING			= ОКРВВЕРХ				##	Округляет число до ближайшего целого или до ближайшего кратного указанному значению.
-COMBIN			= ЧИСЛКОМБ				##	Возвращает количество комбинаций для заданного числа объектов.
-COS			= COS					##	Возвращает косинус числа.
-COSH			= COSH					##	Возвращает гиперболический косинус числа.
-DEGREES			= ГРАДУСЫ				##	Преобразует радианы в градусы.
-EVEN			= ЧЁТН					##	Округляет число до ближайшего четного целого.
-EXP			= EXP					##	Возвращает число e, возведенное в указанную степень.
-FACT			= ФАКТР					##	Возвращает факториал числа.
-FACTDOUBLE		= ДВФАКТР				##	Возвращает двойной факториал числа.
-FLOOR			= ОКРВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
-GCD			= НОД					##	Возвращает наибольший общий делитель.
-INT			= ЦЕЛОЕ					##	Округляет число до ближайшего меньшего целого.
-LCM			= НОК					##	Возвращает наименьшее общее кратное.
-LN			= LN					##	Возвращает натуральный логарифм числа.
-LOG			= LOG					##	Возвращает логарифм числа по заданному основанию.
-LOG10			= LOG10					##	Возвращает десятичный логарифм числа.
-MDETERM			= МОПРЕД				##	Возвращает определитель матрицы массива.
-MINVERSE		= МОБР					##	Возвращает обратную матрицу массива.
-MMULT			= МУМНОЖ				##	Возвращает произведение матриц двух массивов.
-MOD			= ОСТАТ					##	Возвращает остаток от деления.
-MROUND			= ОКРУГЛТ				##	Возвращает число, округленное с требуемой точностью.
-MULTINOMIAL		= МУЛЬТИНОМ				##	Возвращает мультиномиальный коэффициент множества чисел.
-ODD			= НЕЧЁТ					##	Округляет число до ближайшего нечетного целого.
-PI			= ПИ					##	Возвращает число пи.
-POWER			= СТЕПЕНЬ				##	Возвращает результат возведения числа в степень.
-PRODUCT			= ПРОИЗВЕД				##	Возвращает произведение аргументов.
-QUOTIENT		= ЧАСТНОЕ				##	Возвращает целую часть частного при делении.
-RADIANS			= РАДИАНЫ				##	Преобразует градусы в радианы.
-RAND			= СЛЧИС					##	Возвращает случайное число в интервале от 0 до 1.
-RANDBETWEEN		= СЛУЧМЕЖДУ				##	Возвращает случайное число в интервале между двумя заданными числами.
-ROMAN			= РИМСКОЕ				##	Преобразует арабские цифры в римские в виде текста.
-ROUND			= ОКРУГЛ				##	Округляет число до указанного количества десятичных разрядов.
-ROUNDDOWN		= ОКРУГЛВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
-ROUNDUP			= ОКРУГЛВВЕРХ				##	Округляет число до ближайшего большего по модулю значения.
-SERIESSUM		= РЯД.СУММ				##	Возвращает сумму степенного ряда, вычисленную по формуле.
-SIGN			= ЗНАК					##	Возвращает знак числа.
-SIN			= SIN					##	Возвращает синус заданного угла.
-SINH			= SINH					##	Возвращает гиперболический синус числа.
-SQRT			= КОРЕНЬ				##	Возвращает положительное значение квадратного корня.
-SQRTPI			= КОРЕНЬПИ				##	Возвращает квадратный корень из значения выражения (число * ПИ).
-SUBTOTAL		= ПРОМЕЖУТОЧНЫЕ.ИТОГИ			##	Возвращает промежуточный итог в списке или базе данных.
-SUM			= СУММ					##	Суммирует аргументы.
-SUMIF			= СУММЕСЛИ				##	Суммирует ячейки, удовлетворяющие заданному условию.
-SUMIFS			= СУММЕСЛИМН				##	Суммирует диапазон ячеек, удовлетворяющих нескольким условиям.
-SUMPRODUCT		= СУММПРОИЗВ				##	Возвращает сумму произведений соответствующих элементов массивов.
-SUMSQ			= СУММКВ				##	Возвращает сумму квадратов аргументов.
-SUMX2MY2		= СУММРАЗНКВ				##	Возвращает сумму разностей квадратов соответствующих значений в двух массивах.
-SUMX2PY2		= СУММСУММКВ				##	Возвращает сумму сумм квадратов соответствующих элементов двух массивов.
-SUMXMY2			= СУММКВРАЗН				##	Возвращает сумму квадратов разностей соответствующих значений в двух массивах.
-TAN			= TAN					##	Возвращает тангенс числа.
-TANH			= TANH					##	Возвращает гиперболический тангенс числа.
-TRUNC			= ОТБР					##	Отбрасывает дробную часть числа.</t>
-      </text>
-    </comment>
-    <comment ref="S339" authorId="12" shapeId="0" xr:uid="{0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    AVEDEV			= СРОТКЛ				##	Возвращает среднее арифметическое абсолютных значений отклонений точек данных от среднего.
-AVERAGE			= СРЗНАЧ				##	Возвращает среднее арифметическое аргументов.
-AVERAGEA		= СРЗНАЧА				##	Возвращает среднее арифметическое аргументов, включая числа, текст и логические значения.
-AVERAGEIF		= СРЗНАЧЕСЛИ 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек в диапазоне, которые удовлетворяют данному условию.
-AVERAGEIFS		= СРЗНАЧЕСЛИМН 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек, которые удовлетворяют нескольким условиям.
-BETADIST		= БЕТАРАСП				##	Возвращает интегральную функцию бета-распределения.
-BETAINV			= БЕТАОБР				##	Возвращает обратную интегральную функцию указанного бета-распределения.
-BINOMDIST		= БИНОМРАСП				##	Возвращает отдельное значение биномиального распределения.
-CHIDIST			= ХИ2РАСП				##	Возвращает одностороннюю вероятность распределения хи-квадрат.
-CHIINV			= ХИ2ОБР				##	Возвращает обратное значение односторонней вероятности распределения хи-квадрат.
-CHITEST			= ХИ2ТЕСТ				##	Возвращает тест на независимость.
-CONFIDENCE		= ДОВЕРИТ				##	Возвращает доверительный интервал для среднего значения по генеральной совокупности.
-CORREL			= КОРРЕЛ				##	Возвращает коэффициент корреляции между двумя множествами данных.
-COUNT			= СЧЁТ					##	Подсчитывает количество чисел в списке аргументов.
-COUNTA			= СЧЁТЗ					##	Подсчитывает количество значений в списке аргументов.
-COUNTBLANK		= СЧИТАТЬПУСТОТЫ			##	Подсчитывает количество пустых ячеек в диапазоне
-COUNTIF			= СЧЁТЕСЛИ 				##	Подсчитывает количество ячеек в диапазоне, удовлетворяющих заданному условию
-COUNTIFS		= СЧЁТЕСЛИМН				##	Подсчитывает количество ячеек внутри диапазона, удовлетворяющих нескольким условиям.
-COVAR			= КОВАР					##	Возвращает ковариацию, среднее произведений парных отклонений
-CRITBINOM		= КРИТБИНОМ				##	Возвращает наименьшее значение, для которого интегральное биномиальное распределение меньше или равно заданному критерию.
-DEVSQ			= КВАДРОТКЛ				##	Возвращает сумму квадратов отклонений.
-EXPONDIST		= ЭКСПРАСП				##	Возвращает экспоненциальное распределение.
-FDIST			= FРАСП					##	Возвращает F-распределение вероятности.
-FINV			= FРАСПОБР				##	Возвращает обратное значение для F-распределения вероятности.
-FISHER			= ФИШЕР					##	Возвращает преобразование Фишера.
-FISHERINV		= ФИШЕРОБР				##	Возвращает обратное преобразование Фишера.
-FORECAST		= ПРЕДСКАЗ				##	Возвращает значение линейного тренда.
-FREQUENCY		= ЧАСТОТА				##	Возвращает распределение частот в виде вертикального массива.
-FTEST			= ФТЕСТ					##	Возвращает результат F-теста.
-GAMMADIST		= ГАММАРАСП				##	Возвращает гамма-распределение.
-GAMMAINV		= ГАММАОБР				##	Возвращает обратное гамма-распределение.
-GAMMALN			= ГАММАНЛОГ				##	Возвращает натуральный логарифм гамма функции, Γ(x).
-GEOMEAN			= СРГЕОМ				##	Возвращает среднее геометрическое.
-GROWTH			= РОСТ					##	Возвращает значения в соответствии с экспоненциальным трендом.
-HARMEAN			= СРГАРМ				##	Возвращает среднее гармоническое.
-HYPGEOMDIST		= ГИПЕРГЕОМЕТ				##	Возвращает гипергеометрическое распределение.
-INTERCEPT		= ОТРЕЗОК				##	Возвращает отрезок, отсекаемый на оси линией линейной регрессии.
-KURT			= ЭКСЦЕСС				##	Возвращает эксцесс множества данных.
-LARGE			= НАИБОЛЬШИЙ				##	Возвращает k-ое наибольшее значение в множестве данных.
-LINEST			= ЛИНЕЙН				##	Возвращает параметры линейного тренда.
-LOGEST			= ЛГРФПРИБЛ				##	Возвращает параметры экспоненциального тренда.
-LOGINV			= ЛОГНОРМОБР				##	Возвращает обратное логарифмическое нормальное распределение.
-LOGNORMDIST		= ЛОГНОРМРАСП				##	Возвращает интегральное логарифмическое нормальное распределение.
-MAX			= МАКС					##	Возвращает наибольшее значение в списке аргументов.
-MAXA			= МАКСА					##	Возвращает наибольшее значение в списке аргументов, включая числа, текст и логические значения.
-MEDIAN			= МЕДИАНА				##	Возвращает медиану заданных чисел.
-MIN			= МИН					##	Возвращает наименьшее значение в списке аргументов.
-MINA			= МИНА					##	Возвращает наименьшее значение в списке аргументов, включая числа, текст и логические значения.
-MODE			= МОДА					##	Возвращает значение моды множества данных.
-NEGBINOMDIST		= ОТРБИНОМРАСП				##	Возвращает отрицательное биномиальное распределение.
-NORMDIST		= НОРМРАСП				##	Возвращает нормальную функцию распределения.
-NORMINV			= НОРМОБР				##	Возвращает обратное нормальное распределение.
-NORMSDIST		= НОРМСТРАСП				##	Возвращает стандартное нормальное интегральное распределение.
-NORMSINV		= НОРМСТОБР				##	Возвращает обратное значение стандартного нормального распределения.
-PEARSON			= ПИРСОН				##	Возвращает коэффициент корреляции Пирсона.
-PERCENTILE		= ПЕРСЕНТИЛЬ				##	Возвращает k-ую персентиль для значений диапазона.
-PERCENTRANK		= ПРОЦЕНТРАНГ				##	Возвращает процентную норму значения в множестве данных.
-PERMUT			= ПЕРЕСТ				##	Возвращает количество перестановок для заданного числа объектов.
-POISSON			= ПУАССОН				##	Возвращает распределение Пуассона.
-PROB			= ВЕРОЯТНОСТЬ				##	Возвращает вероятность того, что значение из диапазона находится внутри заданных пределов.
-QUARTILE		= КВАРТИЛЬ				##	Возвращает квартиль множества данных.
-RANK			= РАНГ					##	Возвращает ранг числа в списке чисел.
-RSQ			= КВПИРСОН				##	Возвращает квадрат коэффициента корреляции Пирсона.
-SKEW			= СКОС					##	Возвращает асимметрию распределения.
-SLOPE			= НАКЛОН				##	Возвращает наклон линии линейной регрессии.
-SMALL			= НАИМЕНЬШИЙ				##	Возвращает k-ое наименьшее значение в множестве данных.
-STANDARDIZE		= НОРМАЛИЗАЦИЯ				##	Возвращает нормализованное значение.
-STDEV			= СТАНДОТКЛОН				##	Оценивает стандартное отклонение по выборке.
-STDEVA			= СТАНДОТКЛОНА				##	Оценивает стандартное отклонение по выборке, включая числа, текст и логические значения.
-STDEVP			= СТАНДОТКЛОНП				##	Вычисляет стандартное отклонение по генеральной совокупности.
-STDEVPA			= СТАНДОТКЛОНПА				##	Вычисляет стандартное отклонение по генеральной совокупности, включая числа, текст и логические значения.
-STEYX			= СТОШYX				##	Возвращает стандартную ошибку предсказанных значений y для каждого значения x в регрессии.
-TDIST			= СТЬЮДРАСП				##	Возвращает t-распределение Стьюдента.
-TINV			= СТЬЮДРАСПОБР				##	Возвращает обратное t-распределение Стьюдента.
-TREND			= ТЕНДЕНЦИЯ				##	Возвращает значения в соответствии с линейным трендом.
-TRIMMEAN		= УРЕЗСРЕДНЕЕ				##	Возвращает среднее внутренности множества данных.
-TTEST			= ТТЕСТ					##	Возвращает вероятность, соответствующую критерию Стьюдента.
-VAR			= ДИСП					##	Оценивает дисперсию по выборке.
-VARA			= ДИСПА					##	Оценивает дисперсию по выборке, включая числа, текст и логические значения.
-VARP			= ДИСПР					##	Вычисляет дисперсию для генеральной совокупности.
-VARPA			= ДИСПРА				##	Вычисляет дисперсию для генеральной совокупности, включая числа, текст и логические значения.
-WEIBULL			= ВЕЙБУЛЛ				##	Возвращает распределение Вейбулла.
-ZTEST			= ZТЕСТ					##	Возвращает двустороннее P-значение z-теста.</t>
-      </text>
-    </comment>
-    <comment ref="S451" authorId="13" shapeId="0" xr:uid="{4BB940B1-F984-4562-9953-F98AB6C81E95}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ASC			= ASC					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полноширинные (двухбайтовые) знаки в полуширинные (однобайтовые).
-BAHTTEXT		= БАТТЕКСТ				##	Преобразует число в текст, используя денежный формат ß (БАТ).
-CHAR			= СИМВОЛ				##	Возвращает знак с заданным кодом.
-CLEAN			= ПЕЧСИМВ				##	Удаляет все непечатаемые знаки из текста.
-CODE			= КОДСИМВ				##	Возвращает числовой код первого знака в текстовой строке.
-CONCATENATE		= СЦЕПИТЬ				##	Объединяет несколько текстовых элементов в один.
-DOLLAR			= РУБЛЬ					##	Преобразует число в текст, используя денежный формат.
-EXACT			= СОВПАД				##	Проверяет идентичность двух текстовых значений.
-FIND			= НАЙТИ					##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
-FINDB			= НАЙТИБ				##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
-FIXED			= ФИКСИРОВАННЫЙ				##	Форматирует число и преобразует его в текст с заданным числом десятичных знаков.
-JIS			= JIS					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полуширинные (однобайтовые) знаки в текстовой строке в полноширинные (двухбайтовые).
-LEFT			= ЛЕВСИМВ				##	Возвращает крайние слева знаки текстового значения.
-LEFTB			= ЛЕВБ					##	Возвращает крайние слева знаки текстового значения.
-LEN			= ДЛСТР					##	Возвращает количество знаков в текстовой строке.
-LENB			= ДЛИНБ					##	Возвращает количество знаков в текстовой строке.
-LOWER			= СТРОЧН				##	Преобразует все буквы текста в строчные.
-MID			= ПСТР					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
-MIDB			= ПСТРБ					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
-PHONETIC		= PHONETIC				##	Извлекает фонетические (фуригана) знаки из текстовой строки.
-PROPER			= ПРОПНАЧ				##	Преобразует первую букву в каждом слове текста в прописную.
-REPLACE			= ЗАМЕНИТЬ				##	Заменяет знаки в тексте.
-REPLACEB		= ЗАМЕНИТЬБ				##	Заменяет знаки в тексте.
-REPT			= ПОВТОР				##	Повторяет текст заданное число раз.
-RIGHT			= ПРАВСИМВ				##	Возвращает крайние справа знаки текстовой строки.
-RIGHTB			= ПРАВБ					##	Возвращает крайние справа знаки текстовой строки.
-SEARCH			= ПОИСК					##	Ищет вхождения одного текстового значения в другом (без учета регистра).
-SEARCHB			= ПОИСКБ				##	Ищет вхождения одного текстового значения в другом (без учета регистра).
-SUBSTITUTE		= ПОДСТАВИТЬ				##	Заменяет в текстовой строке старый текст новым.
-T			= Т					##	Преобразует аргументы в текст.
-TEXT			= ТЕКСТ					##	Форматирует число и преобразует его в текст.
-TRIM			= СЖПРОБЕЛЫ				##	Удаляет из текста пробелы.
-UPPER			= ПРОПИСН				##	Преобразует все буквы текста в прописные.
-VALUE			= ЗНАЧЕН				##	Преобразует текстовый аргумент в число.</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="6579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8665" uniqueCount="6565">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -20221,55 +19764,13 @@
   </si>
   <si>
     <t>MAKEARRAY</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>English-UK</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>en_uk</t>
-  </si>
-  <si>
-    <t>bg</t>
-  </si>
-  <si>
-    <t>български</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>лв</t>
-  </si>
-  <si>
-    <t>#ПРАЗНО!</t>
-  </si>
-  <si>
-    <t>#СТОЙНОСТ!</t>
-  </si>
-  <si>
-    <t>#РЕФ!</t>
-  </si>
-  <si>
-    <t>#ИМЕ?</t>
-  </si>
-  <si>
-    <t>Функции Куб</t>
-  </si>
-  <si>
-    <t>ПИРСОН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -20282,20 +19783,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -20327,13 +19814,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20357,12 +19841,11 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mark Baker" id="{84B2E884-52F6-4480-867C-B31E4990FC05}" userId="fcb674f5c04c1517" providerId="Windows Live"/>
-  <person displayName="Owen Leibman" id="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" userId="S::OwenLeibman@fico.com::ee9dd42c-bb58-41b9-9ae6-a75536fe8df9" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20650,7 +20133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20668,391 +20151,6 @@
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="R1" dT="2021-05-16T22:05:10.68" personId="{84B2E884-52F6-4480-867C-B31E4990FC05}" id="{7E149540-45F7-45C7-8660-0EFBB7E0976B}">
     <text>Should strictly be nb_no</text>
-  </threadedComment>
-  <threadedComment ref="S1" dT="2023-08-22T03:04:00.25" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{E138FC8D-CF03-4DDC-BD49-5EE171CE701F}">
-    <text>information provided by web-junior (http://www.web-junior.net/)</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>1390761882</xltc2:checksum>
-        <xltc2:hyperlink startIndex="36" length="26" url="http://www.web-junior.net/"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="S4" dT="2023-08-22T02:47:43.44" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{868F32B0-D73B-4C01-B4A5-8B50AC93BC60}">
-    <text>CUBEKPIMEMBER		= КУБЭЛЕМЕНТКИП				##	Возвращает свойство ключевого индикатора производительности «(КИП)» и отображает имя «КИП» в ячейке. «КИП» представляет собой количественную величину, такую как ежемесячная валовая прибыль или ежеквартальная текучесть кадров, используемой для контроля эффективности работы организации.
-CUBEMEMBER		= КУБЭЛЕМЕНТ				##	Возвращает элемент или кортеж из куба. Используется для проверки существования элемента или кортежа в кубе.
-CUBEMEMBERPROPERTY	= КУБСВОЙСТВОЭЛЕМЕНТА			##	Возвращает значение свойства элемента из куба. Используется для проверки существования имени элемента в кубе и возвращает указанное свойство для этого элемента.
-CUBERANKEDMEMBER	= КУБПОРЭЛЕМЕНТ				##	Возвращает n-ый или ранжированный элемент в множество. Используется для возвращения одного или нескольких элементов в множество, например, лучшего продавца или 10 лучших студентов.
-CUBESET			= КУБМНОЖ				##	Определяет вычислительное множество элементов или кортежей, отправляя на сервер выражение, которое создает множество, а затем возвращает его в Microsoft Office Excel.
-CUBESETCOUNT		= КУБЧИСЛОЭЛМНОЖ			##	Возвращает число элементов множества.
-CUBEVALUE		= КУБЗНАЧЕНИЕ				##	Возвращает обобщенное значение из куба.</text>
-  </threadedComment>
-  <threadedComment ref="S13" dT="2023-08-22T02:48:50.33" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{61F71480-555F-404F-870F-9E9DFD41D0BC}">
-    <text>DAVERAGE		= ДСРЗНАЧ				##	Возвращает среднее значение выбранных записей базы данных.
-DCOUNT			= БСЧЁТ					##	Подсчитывает количество числовых ячеек в базе данных.
-DCOUNTA			= БСЧЁТА				##	Подсчитывает количество непустых ячеек в базе данных.
-DGET			= БИЗВЛЕЧЬ				##	Извлекает из базы данных одну запись, удовлетворяющую заданному условию.
-DMAX			= ДМАКС					##	Возвращает максимальное значение среди выделенных записей базы данных.
-DMIN			= ДМИН					##	Возвращает минимальное значение среди выделенных записей базы данных.
-DPRODUCT		= БДПРОИЗВЕД				##	Перемножает значения определенного поля в записях базы данных, удовлетворяющих условию.
-DSTDEV			= ДСТАНДОТКЛ				##	Оценивает стандартное отклонение по выборке для выделенных записей базы данных.
-DSTDEVP			= ДСТАНДОТКЛП				##	Вычисляет стандартное отклонение по генеральной совокупности для выделенных записей базы данных
-DSUM			= БДСУММ				##	Суммирует числа в поле для записей базы данных, удовлетворяющих условию.
-DVAR			= БДДИСП				##	Оценивает дисперсию по выборке из выделенных записей базы данных
-DVARP			= БДДИСПП				##	Вычисляет дисперсию по генеральной совокупности для выделенных записей базы данных</text>
-  </threadedComment>
-  <threadedComment ref="S27" dT="2023-08-22T02:50:56.22" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{C02634D7-5549-4BEC-A659-237ECEFD000F}">
-    <text>DATE			= ДАТА					##	Возвращает заданную дату в числовом формате.
-DATEVALUE		= ДАТАЗНАЧ				##	Преобразует дату из текстового формата в числовой формат.
-DAY			= ДЕНЬ					##	Преобразует дату в числовом формате в день месяца.
-DAYS360			= ДНЕЙ360				##	Вычисляет количество дней между двумя датами на основе 360-дневного года.
-EDATE			= ДАТАМЕС				##	Возвращает дату в числовом формате, отстоящую на заданное число месяцев вперед или назад от начальной даты.
-EOMONTH			= КОНМЕСЯЦА				##	Возвращает дату в числовом формате для последнего дня месяца, отстоящего вперед или назад на заданное число месяцев.
-HOUR			= ЧАС					##	Преобразует дату в числовом формате в часы.
-MINUTE			= МИНУТЫ				##	Преобразует дату в числовом формате в минуты.
-MONTH			= МЕСЯЦ					##	Преобразует дату в числовом формате в месяцы.
-NETWORKDAYS		= ЧИСТРАБДНИ				##	Возвращает количество рабочих дней между двумя датами.
-NOW			= ТДАТА					##	Возвращает текущую дату и время в числовом формате.
-SECOND			= СЕКУНДЫ				##	Преобразует дату в числовом формате в секунды.
-TIME			= ВРЕМЯ					##	Возвращает заданное время в числовом формате.
-TIMEVALUE		= ВРЕМЗНАЧ				##	Преобразует время из текстового формата в числовой формат.
-TODAY			= СЕГОДНЯ				##	Возвращает текущую дату в числовом формате.
-WEEKDAY			= ДЕНЬНЕД				##	Преобразует дату в числовом формате в день недели.
-WEEKNUM			= НОМНЕДЕЛИ				##	Преобразует числовое представление в число, которое указывает, на какую неделю года приходится указанная дата.
-WORKDAY			= РАБДЕНЬ				##	Возвращает дату в числовом формате, отстоящую вперед или назад на заданное количество рабочих дней.
-YEAR			= ГОД					##	Преобразует дату в числовом формате в год.
-YEARFRAC		= ДОЛЯГОДА				##	Возвращает долю года, которую составляет количество дней между начальной и конечной датами.</text>
-  </threadedComment>
-  <threadedComment ref="S58" dT="2023-08-22T02:51:58.85" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{BB970519-C2C0-4441-B343-F13D4CD744BE}">
-    <text>BESSELI			= БЕССЕЛЬ.I	 			##	Возвращает модифицированную функцию Бесселя In(x).
-BESSELJ			= БЕССЕЛЬ.J				##	Возвращает функцию Бесселя Jn(x).
-BESSELK			= БЕССЕЛЬ.K				##	Возвращает модифицированную функцию Бесселя Kn(x).
-BESSELY			= БЕССЕЛЬ.Y				##	Возвращает функцию Бесселя Yn(x).
-BIN2DEC			= ДВ.В.ДЕС				##	Преобразует двоичное число в десятичное.
-BIN2HEX			= ДВ.В.ШЕСТН				##	Преобразует двоичное число в шестнадцатеричное.
-BIN2OCT			= ДВ.В.ВОСЬМ				##	Преобразует двоичное число в восьмеричное.
-COMPLEX			= КОМПЛЕКСН				##	Преобразует коэффициенты при вещественной и мнимой частях комплексного числа в комплексное число.
-CONVERT			= ПРЕОБР				##	Преобразует число из одной системы единиц измерения в другую.
-DEC2BIN			= ДЕС.В.ДВ				##	Преобразует десятичное число в двоичное.
-DEC2HEX			= ДЕС.В.ШЕСТН				##	Преобразует десятичное число в шестнадцатеричное.
-DEC2OCT			= ДЕС.В.ВОСЬМ				##	Преобразует десятичное число в восьмеричное.
-DELTA			= ДЕЛЬТА				##	Проверяет равенство двух значений.
-ERF			= ФОШ					##	Возвращает функцию ошибки.
-ERFC			= ДФОШ					##	Возвращает дополнительную функцию ошибки.
-GESTEP			= ПОРОГ					##	Проверяет, не превышает ли данное число порогового значения.
-HEX2BIN			= ШЕСТН.В.ДВ				##	Преобразует шестнадцатеричное число в двоичное.
-HEX2DEC			= ШЕСТН.В.ДЕС				##	Преобразует шестнадцатеричное число в десятичное.
-HEX2OCT			= ШЕСТН.В.ВОСЬМ				##	Преобразует шестнадцатеричное число в восьмеричное.
-IMABS			= МНИМ.ABS				##	Возвращает абсолютную величину (модуль) комплексного числа.
-IMAGINARY		= МНИМ.ЧАСТЬ				##	Возвращает коэффициент при мнимой части комплексного числа.
-IMARGUMENT		= МНИМ.АРГУМЕНТ				##	Возвращает значение аргумента комплексного числа (тета) — угол, выраженный в радианах.
-IMCONJUGATE		= МНИМ.СОПРЯЖ				##	Возвращает комплексно-сопряженное комплексное число.
-IMCOS			= МНИМ.COS				##	Возвращает косинус комплексного числа.
-IMDIV			= МНИМ.ДЕЛ				##	Возвращает частное от деления двух комплексных чисел.
-IMEXP			= МНИМ.EXP				##	Возвращает экспоненту комплексного числа.
-IMLN			= МНИМ.LN				##	Возвращает натуральный логарифм комплексного числа.
-IMLOG10			= МНИМ.LOG10				##	Возвращает обычный (десятичный) логарифм комплексного числа.
-IMLOG2			= МНИМ.LOG2				##	Возвращает двоичный логарифм комплексного числа.
-IMPOWER			= МНИМ.СТЕПЕНЬ				##	Возвращает комплексное число, возведенное в целую степень.
-IMPRODUCT		= МНИМ.ПРОИЗВЕД				##	Возвращает произведение от 2 до 29 комплексных чисел.
-IMREAL			= МНИМ.ВЕЩ				##	Возвращает коэффициент при вещественной части комплексного числа.
-IMSIN			= МНИМ.SIN				##	Возвращает синус комплексного числа.
-IMSQRT			= МНИМ.КОРЕНЬ				##	Возвращает значение квадратного корня из комплексного числа.
-IMSUB			= МНИМ.РАЗН				##	Возвращает разность двух комплексных чисел.
-IMSUM			= МНИМ.СУММ				##	Возвращает сумму комплексных чисел.
-OCT2BIN			= ВОСЬМ.В.ДВ				##	Преобразует восьмеричное число в двоичное.
-OCT2DEC			= ВОСЬМ.В.ДЕС				##	Преобразует восьмеричное число в десятичное.
-OCT2HEX			= ВОСЬМ.В.ШЕСТН				##	Преобразует восьмеричное число в шестнадцатеричное.</text>
-  </threadedComment>
-  <threadedComment ref="S114" dT="2023-08-22T02:53:23.48" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{915F01F8-B93F-4634-A958-C88DB26A4489}">
-    <text>ACCRINT			= НАКОПДОХОД				##	Возвращает накопленный процент по ценным бумагам с периодической выплатой процентов.
-ACCRINTM		= НАКОПДОХОДПОГАШ			##	Возвращает накопленный процент по ценным бумагам, проценты по которым выплачиваются в срок погашения.
-AMORDEGRC		= АМОРУМ				##	Возвращает величину амортизации для каждого периода, используя коэффициент амортизации.
-AMORLINC		= АМОРУВ				##	Возвращает величину амортизации для каждого периода.
-COUPDAYBS		= ДНЕЙКУПОНДО				##	Возвращает количество дней от начала действия купона до даты соглашения.
-COUPDAYS		= ДНЕЙКУПОН				##	Возвращает число дней в периоде купона, содержащем дату соглашения.
-COUPDAYSNC		= ДНЕЙКУПОНПОСЛЕ			##	Возвращает число дней от даты соглашения до срока следующего купона.
-COUPNCD			= ДАТАКУПОНПОСЛЕ			##	Возвращает следующую дату купона после даты соглашения.
-COUPNUM			= ЧИСЛКУПОН				##	Возвращает количество купонов, которые могут быть оплачены между датой соглашения и сроком вступления в силу.
-COUPPCD			= ДАТАКУПОНДО				##	Возвращает предыдущую дату купона перед датой соглашения.
-CUMIPMT			= ОБЩПЛАТ				##	Возвращает общую выплату, произведенную между двумя периодическими выплатами.
-CUMPRINC		= ОБЩДОХОД				##	Возвращает общую выплату по займу между двумя периодами.
-DB			= ФУО					##	Возвращает величину амортизации актива для заданного периода, рассчитанную методом фиксированного уменьшения остатка.
-DDB			= ДДОБ					##	Возвращает величину амортизации актива за данный период, используя метод двойного уменьшения остатка или иной явно указанный метод.
-DISC			= СКИДКА				##	Возвращает норму скидки для ценных бумаг.
-DOLLARDE		= РУБЛЬ.ДЕС				##	Преобразует цену в рублях, выраженную в виде дроби, в цену в рублях, выраженную десятичным числом.
-DOLLARFR		= РУБЛЬ.ДРОБЬ				##	Преобразует цену в рублях, выраженную десятичным числом, в цену в рублях, выраженную в виде дроби.
-DURATION		= ДЛИТ					##	Возвращает ежегодную продолжительность действия ценных бумаг с периодическими выплатами по процентам.
-EFFECT			= ЭФФЕКТ				##	Возвращает действующие ежегодные процентные ставки.
-FV			= БС					##	Возвращает будущую стоимость инвестиции.
-FVSCHEDULE		= БЗРАСПИС				##	Возвращает будущую стоимость первоначальной основной суммы после начисления ряда сложных процентов.
-INTRATE			= ИНОРМА				##	Возвращает процентную ставку для полностью инвестированных ценных бумаг.
-IPMT			= ПРПЛТ					##	Возвращает величину выплаты прибыли на вложения за данный период.
-IRR			= ВСД					##	Возвращает внутреннюю ставку доходности для ряда потоков денежных средств.
-ISPMT			= ПРОЦПЛАТ				##	Вычисляет выплаты за указанный период инвестиции.
-MDURATION		= МДЛИТ					##	Возвращает модифицированную длительность Маколея для ценных бумаг с предполагаемой номинальной стоимостью 100 рублей.
-MIRR			= МВСД					##	Возвращает внутреннюю ставку доходности, при которой положительные и отрицательные денежные потоки имеют разные значения ставки.
-NOMINAL			= НОМИНАЛ				##	Возвращает номинальную годовую процентную ставку.
-NPER			= КПЕР					##	Возвращает общее количество периодов выплаты для данного вклада.
-NPV			= ЧПС					##	Возвращает чистую приведенную стоимость инвестиции, основанной на серии периодических денежных потоков и ставке дисконтирования.
-ODDFPRICE		= ЦЕНАПЕРВНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным первым периодом.
-ODDFYIELD		= ДОХОДПЕРВНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным первым периодом.
-ODDLPRICE		= ЦЕНАПОСЛНЕРЕГ				##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг с нерегулярным последним периодом.
-ODDLYIELD		= ДОХОДПОСЛНЕРЕГ			##	Возвращает доход по ценным бумагам с нерегулярным последним периодом.
-PMT			= ПЛТ					##	Возвращает величину выплаты за один период аннуитета.
-PPMT			= ОСПЛТ					##	Возвращает величину выплат в погашение основной суммы по инвестиции за заданный период.
-PRICE			= ЦЕНА					##	Возвращает цену за 100 рублей нарицательной стоимости ценных бумаг, по которым производится периодическая выплата процентов.
-PRICEDISC		= ЦЕНАСКИДКА				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, на которые сделана скидка.
-PRICEMAT		= ЦЕНАПОГАШ				##	Возвращает цену за 100 рублей номинальной стоимости ценных бумаг, проценты по которым выплачиваются в срок погашения.
-PV			= ПС					##	Возвращает приведенную (к текущему моменту) стоимость инвестиции.
-RATE			= СТАВКА				##	Возвращает процентную ставку по аннуитету за один период.
-RECEIVED		= ПОЛУЧЕНО				##	Возвращает сумму, полученную к сроку погашения полностью обеспеченных ценных бумаг.
-SLN			= АПЛ					##	Возвращает величину линейной амортизации актива за один период.
-SYD			= АСЧ					##	Возвращает величину амортизации актива за данный период, рассчитанную методом суммы годовых чисел.
-TBILLEQ			= РАВНОКЧЕК				##	Возвращает эквивалентный облигации доход по казначейскому чеку.
-TBILLPRICE		= ЦЕНАКЧЕК				##	Возвращает цену за 100 рублей нарицательной стоимости для казначейского чека.
-TBILLYIELD		= ДОХОДКЧЕК				##	Возвращает доход по казначейскому чеку.
-VDB			= ПУО					##	Возвращает величину амортизации актива для указанного или частичного периода при использовании метода сокращающегося баланса.
-XIRR			= ЧИСТВНДОХ				##	Возвращает внутреннюю ставку доходности для графика денежных потоков, которые не обязательно носят периодический характер.
-XNPV			= ЧИСТНЗ				##	Возвращает чистую приведенную стоимость для денежных потоков, которые не обязательно являются периодическими.
-YIELD			= ДОХОД					##	Возвращает доход от ценных бумаг, по которым производятся периодические выплаты процентов.
-YIELDDISC		= ДОХОДСКИДКА				##	Возвращает годовой доход по ценным бумагам, на которые сделана скидка (пример — казначейские чеки).
-YIELDMAT		= ДОХОДПОГАШ				##	Возвращает годовой доход от ценных бумаг, проценты по которым выплачиваются в срок погашения.</text>
-  </threadedComment>
-  <threadedComment ref="S172" dT="2023-08-22T02:54:35.59" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{FF6A9B1E-172D-419A-AE26-363E0061308C}">
-    <text>CELL			= ЯЧЕЙКА				##	Возвращает информацию о формате, расположении или содержимом ячейки.
-ERROR.TYPE		= ТИП.ОШИБКИ				##	Возвращает числовой код, соответствующий типу ошибки.
-INFO			= ИНФОРМ				##	Возвращает информацию о текущей операционной среде.
-ISBLANK			= ЕПУСТО				##	Возвращает значение ИСТИНА, если аргумент является ссылкой на пустую ячейку.
-ISERR			= ЕОШ					##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки, кроме #Н/Д.
-ISERROR			= ЕОШИБКА				##	Возвращает значение ИСТИНА, если аргумент ссылается на любое значение ошибки.
-ISEVEN			= ЕЧЁТН					##	Возвращает значение ИСТИНА, если значение аргумента является четным числом.
-ISLOGICAL		= ЕЛОГИЧ				##	Возвращает значение ИСТИНА, если аргумент ссылается на логическое значение.
-ISNA			= ЕНД					##	Возвращает значение ИСТИНА, если аргумент ссылается на значение ошибки #Н/Д.
-ISNONTEXT		= ЕНЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента не является текстом.
-ISNUMBER		= ЕЧИСЛО				##	Возвращает значение ИСТИНА, если аргумент ссылается на число.
-ISODD			= ЕНЕЧЁТ				##	Возвращает значение ИСТИНА, если значение аргумента является нечетным числом.
-ISREF			= ЕССЫЛКА				##	Возвращает значение ИСТИНА, если значение аргумента является ссылкой.
-ISTEXT			= ЕТЕКСТ				##	Возвращает значение ИСТИНА, если значение аргумента является текстом.
-N			= Ч					##	Возвращает значение, преобразованное в число.
-NA			= НД					##	Возвращает значение ошибки #Н/Д.
-TYPE			= ТИП					##	Возвращает число, обозначающее тип данных значения.</text>
-  </threadedComment>
-  <threadedComment ref="S195" dT="2023-08-22T02:55:34.25" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{CACDDDBD-012F-4F2F-8457-4FF52EB4D2D0}">
-    <text>AND			= И					##	Renvoie VRAI si tous ses arguments sont VRAI.
-FALSE			= ЛОЖЬ					##	Возвращает логическое значение ЛОЖЬ.
-IF			= ЕСЛИ					##	Выполняет проверку условия.
-IFERROR			= ЕСЛИОШИБКА				##	Возвращает введённое значение, если вычисление по формуле вызывает ошибку; в противном случае функция возвращает результат вычисления.
-NOT			= НЕ					##	Меняет логическое значение своего аргумента на противоположное.
-OR			= ИЛИ					##	Возвращает значение ИСТИНА, если хотя бы один аргумент имеет значение ИСТИНА.
-TRUE			= ИСТИНА				##	Возвращает логическое значение ИСТИНА.</text>
-  </threadedComment>
-  <threadedComment ref="S216" dT="2023-08-22T02:56:40.23" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{3B6725E7-9A95-45C6-BAD0-BB4C900C4B9F}">
-    <text>ADDRESS			= АДРЕС					##	Возвращает ссылку на отдельную ячейку листа в виде текста.
-AREAS			= ОБЛАСТИ				##	Возвращает количество областей в ссылке.
-CHOOSE			= ВЫБОР					##	Выбирает значение из списка значений по индексу.
-COLUMN			= СТОЛБЕЦ				##	Возвращает номер столбца, на который указывает ссылка.
-COLUMNS			= ЧИСЛСТОЛБ				##	Возвращает количество столбцов в ссылке.
-HLOOKUP			= ГПР					##	Ищет в первой строке массива и возвращает значение отмеченной ячейки
-HYPERLINK		= ГИПЕРССЫЛКА				##	Создает ссылку, открывающую документ, который находится на сервере сети, в интрасети или в Интернете.
-INDEX			= ИНДЕКС				##	Использует индекс для выбора значения из ссылки или массива.
-INDIRECT		= ДВССЫЛ				##	Возвращает ссылку, заданную текстовым значением.
-LOOKUP			= ПРОСМОТР				##	Ищет значения в векторе или массиве.
-MATCH			= ПОИСКПОЗ				##	Ищет значения в ссылке или массиве.
-OFFSET			= СМЕЩ					##	Возвращает смещение ссылки относительно заданной ссылки.
-ROW			= СТРОКА				##	Возвращает номер строки, определяемой ссылкой.
-ROWS			= ЧСТРОК				##	Возвращает количество строк в ссылке.
-RTD			= ДРВ					##	Извлекает данные реального времени из программ, поддерживающих автоматизацию COM (Программирование объектов. Стандартное средство для работы с объектами некоторого приложения из другого приложения или средства разработки. Программирование объектов (ранее называемое программированием OLE) является функцией модели COM (Component Object Model, модель компонентных объектов).).
-TRANSPOSE		= ТРАНСП				##	Возвращает транспонированный массив.
-VLOOKUP			= ВПР					##	Ищет значение в первом столбце массива и возвращает значение из ячейки в найденной строке и указанном столбце.</text>
-  </threadedComment>
-  <threadedComment ref="S224" dT="2023-08-22T20:04:15.97" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{6005DC7F-03C9-4B1E-B445-787F12B5B7BC}">
-    <text>##	Add-in and Automation functions				Функции надстроек и автоматизации
-##
-GETPIVOTDATA		= ПОЛУЧИТЬ.ДАННЫЕ.СВОДНОЙ.ТАБЛИЦЫ	##	Возвращает данные, хранящиеся в отчете сводной таблицы.</text>
-  </threadedComment>
-  <threadedComment ref="S244" dT="2023-08-22T02:57:41.82" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{5539F2F5-C7CE-40CC-84E7-73C614DD1C3A}">
-    <text>ABS			= ABS					##	Возвращает модуль (абсолютную величину) числа.
-ACOS			= ACOS					##	Возвращает арккосинус числа.
-ACOSH			= ACOSH					##	Возвращает гиперболический арккосинус числа.
-ASIN			= ASIN					##	Возвращает арксинус числа.
-ASINH			= ASINH					##	Возвращает гиперболический арксинус числа.
-ATAN			= ATAN					##	Возвращает арктангенс числа.
-ATAN2			= ATAN2					##	Возвращает арктангенс для заданных координат x и y.
-ATANH			= ATANH					##	Возвращает гиперболический арктангенс числа.
-CEILING			= ОКРВВЕРХ				##	Округляет число до ближайшего целого или до ближайшего кратного указанному значению.
-COMBIN			= ЧИСЛКОМБ				##	Возвращает количество комбинаций для заданного числа объектов.
-COS			= COS					##	Возвращает косинус числа.
-COSH			= COSH					##	Возвращает гиперболический косинус числа.
-DEGREES			= ГРАДУСЫ				##	Преобразует радианы в градусы.
-EVEN			= ЧЁТН					##	Округляет число до ближайшего четного целого.
-EXP			= EXP					##	Возвращает число e, возведенное в указанную степень.
-FACT			= ФАКТР					##	Возвращает факториал числа.
-FACTDOUBLE		= ДВФАКТР				##	Возвращает двойной факториал числа.
-FLOOR			= ОКРВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
-GCD			= НОД					##	Возвращает наибольший общий делитель.
-INT			= ЦЕЛОЕ					##	Округляет число до ближайшего меньшего целого.
-LCM			= НОК					##	Возвращает наименьшее общее кратное.
-LN			= LN					##	Возвращает натуральный логарифм числа.
-LOG			= LOG					##	Возвращает логарифм числа по заданному основанию.
-LOG10			= LOG10					##	Возвращает десятичный логарифм числа.
-MDETERM			= МОПРЕД				##	Возвращает определитель матрицы массива.
-MINVERSE		= МОБР					##	Возвращает обратную матрицу массива.
-MMULT			= МУМНОЖ				##	Возвращает произведение матриц двух массивов.
-MOD			= ОСТАТ					##	Возвращает остаток от деления.
-MROUND			= ОКРУГЛТ				##	Возвращает число, округленное с требуемой точностью.
-MULTINOMIAL		= МУЛЬТИНОМ				##	Возвращает мультиномиальный коэффициент множества чисел.
-ODD			= НЕЧЁТ					##	Округляет число до ближайшего нечетного целого.
-PI			= ПИ					##	Возвращает число пи.
-POWER			= СТЕПЕНЬ				##	Возвращает результат возведения числа в степень.
-PRODUCT			= ПРОИЗВЕД				##	Возвращает произведение аргументов.
-QUOTIENT		= ЧАСТНОЕ				##	Возвращает целую часть частного при делении.
-RADIANS			= РАДИАНЫ				##	Преобразует градусы в радианы.
-RAND			= СЛЧИС					##	Возвращает случайное число в интервале от 0 до 1.
-RANDBETWEEN		= СЛУЧМЕЖДУ				##	Возвращает случайное число в интервале между двумя заданными числами.
-ROMAN			= РИМСКОЕ				##	Преобразует арабские цифры в римские в виде текста.
-ROUND			= ОКРУГЛ				##	Округляет число до указанного количества десятичных разрядов.
-ROUNDDOWN		= ОКРУГЛВНИЗ				##	Округляет число до ближайшего меньшего по модулю значения.
-ROUNDUP			= ОКРУГЛВВЕРХ				##	Округляет число до ближайшего большего по модулю значения.
-SERIESSUM		= РЯД.СУММ				##	Возвращает сумму степенного ряда, вычисленную по формуле.
-SIGN			= ЗНАК					##	Возвращает знак числа.
-SIN			= SIN					##	Возвращает синус заданного угла.
-SINH			= SINH					##	Возвращает гиперболический синус числа.
-SQRT			= КОРЕНЬ				##	Возвращает положительное значение квадратного корня.
-SQRTPI			= КОРЕНЬПИ				##	Возвращает квадратный корень из значения выражения (число * ПИ).
-SUBTOTAL		= ПРОМЕЖУТОЧНЫЕ.ИТОГИ			##	Возвращает промежуточный итог в списке или базе данных.
-SUM			= СУММ					##	Суммирует аргументы.
-SUMIF			= СУММЕСЛИ				##	Суммирует ячейки, удовлетворяющие заданному условию.
-SUMIFS			= СУММЕСЛИМН				##	Суммирует диапазон ячеек, удовлетворяющих нескольким условиям.
-SUMPRODUCT		= СУММПРОИЗВ				##	Возвращает сумму произведений соответствующих элементов массивов.
-SUMSQ			= СУММКВ				##	Возвращает сумму квадратов аргументов.
-SUMX2MY2		= СУММРАЗНКВ				##	Возвращает сумму разностей квадратов соответствующих значений в двух массивах.
-SUMX2PY2		= СУММСУММКВ				##	Возвращает сумму сумм квадратов соответствующих элементов двух массивов.
-SUMXMY2			= СУММКВРАЗН				##	Возвращает сумму квадратов разностей соответствующих значений в двух массивах.
-TAN			= TAN					##	Возвращает тангенс числа.
-TANH			= TANH					##	Возвращает гиперболический тангенс числа.
-TRUNC			= ОТБР					##	Отбрасывает дробную часть числа.</text>
-  </threadedComment>
-  <threadedComment ref="S339" dT="2023-08-22T02:58:49.96" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{0BC0B73F-15BC-4022-959C-D8A0FF6F60FB}">
-    <text>AVEDEV			= СРОТКЛ				##	Возвращает среднее арифметическое абсолютных значений отклонений точек данных от среднего.
-AVERAGE			= СРЗНАЧ				##	Возвращает среднее арифметическое аргументов.
-AVERAGEA		= СРЗНАЧА				##	Возвращает среднее арифметическое аргументов, включая числа, текст и логические значения.
-AVERAGEIF		= СРЗНАЧЕСЛИ 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек в диапазоне, которые удовлетворяют данному условию.
-AVERAGEIFS		= СРЗНАЧЕСЛИМН 				##	Возвращает среднее значение (среднее арифметическое) всех ячеек, которые удовлетворяют нескольким условиям.
-BETADIST		= БЕТАРАСП				##	Возвращает интегральную функцию бета-распределения.
-BETAINV			= БЕТАОБР				##	Возвращает обратную интегральную функцию указанного бета-распределения.
-BINOMDIST		= БИНОМРАСП				##	Возвращает отдельное значение биномиального распределения.
-CHIDIST			= ХИ2РАСП				##	Возвращает одностороннюю вероятность распределения хи-квадрат.
-CHIINV			= ХИ2ОБР				##	Возвращает обратное значение односторонней вероятности распределения хи-квадрат.
-CHITEST			= ХИ2ТЕСТ				##	Возвращает тест на независимость.
-CONFIDENCE		= ДОВЕРИТ				##	Возвращает доверительный интервал для среднего значения по генеральной совокупности.
-CORREL			= КОРРЕЛ				##	Возвращает коэффициент корреляции между двумя множествами данных.
-COUNT			= СЧЁТ					##	Подсчитывает количество чисел в списке аргументов.
-COUNTA			= СЧЁТЗ					##	Подсчитывает количество значений в списке аргументов.
-COUNTBLANK		= СЧИТАТЬПУСТОТЫ			##	Подсчитывает количество пустых ячеек в диапазоне
-COUNTIF			= СЧЁТЕСЛИ 				##	Подсчитывает количество ячеек в диапазоне, удовлетворяющих заданному условию
-COUNTIFS		= СЧЁТЕСЛИМН				##	Подсчитывает количество ячеек внутри диапазона, удовлетворяющих нескольким условиям.
-COVAR			= КОВАР					##	Возвращает ковариацию, среднее произведений парных отклонений
-CRITBINOM		= КРИТБИНОМ				##	Возвращает наименьшее значение, для которого интегральное биномиальное распределение меньше или равно заданному критерию.
-DEVSQ			= КВАДРОТКЛ				##	Возвращает сумму квадратов отклонений.
-EXPONDIST		= ЭКСПРАСП				##	Возвращает экспоненциальное распределение.
-FDIST			= FРАСП					##	Возвращает F-распределение вероятности.
-FINV			= FРАСПОБР				##	Возвращает обратное значение для F-распределения вероятности.
-FISHER			= ФИШЕР					##	Возвращает преобразование Фишера.
-FISHERINV		= ФИШЕРОБР				##	Возвращает обратное преобразование Фишера.
-FORECAST		= ПРЕДСКАЗ				##	Возвращает значение линейного тренда.
-FREQUENCY		= ЧАСТОТА				##	Возвращает распределение частот в виде вертикального массива.
-FTEST			= ФТЕСТ					##	Возвращает результат F-теста.
-GAMMADIST		= ГАММАРАСП				##	Возвращает гамма-распределение.
-GAMMAINV		= ГАММАОБР				##	Возвращает обратное гамма-распределение.
-GAMMALN			= ГАММАНЛОГ				##	Возвращает натуральный логарифм гамма функции, Γ(x).
-GEOMEAN			= СРГЕОМ				##	Возвращает среднее геометрическое.
-GROWTH			= РОСТ					##	Возвращает значения в соответствии с экспоненциальным трендом.
-HARMEAN			= СРГАРМ				##	Возвращает среднее гармоническое.
-HYPGEOMDIST		= ГИПЕРГЕОМЕТ				##	Возвращает гипергеометрическое распределение.
-INTERCEPT		= ОТРЕЗОК				##	Возвращает отрезок, отсекаемый на оси линией линейной регрессии.
-KURT			= ЭКСЦЕСС				##	Возвращает эксцесс множества данных.
-LARGE			= НАИБОЛЬШИЙ				##	Возвращает k-ое наибольшее значение в множестве данных.
-LINEST			= ЛИНЕЙН				##	Возвращает параметры линейного тренда.
-LOGEST			= ЛГРФПРИБЛ				##	Возвращает параметры экспоненциального тренда.
-LOGINV			= ЛОГНОРМОБР				##	Возвращает обратное логарифмическое нормальное распределение.
-LOGNORMDIST		= ЛОГНОРМРАСП				##	Возвращает интегральное логарифмическое нормальное распределение.
-MAX			= МАКС					##	Возвращает наибольшее значение в списке аргументов.
-MAXA			= МАКСА					##	Возвращает наибольшее значение в списке аргументов, включая числа, текст и логические значения.
-MEDIAN			= МЕДИАНА				##	Возвращает медиану заданных чисел.
-MIN			= МИН					##	Возвращает наименьшее значение в списке аргументов.
-MINA			= МИНА					##	Возвращает наименьшее значение в списке аргументов, включая числа, текст и логические значения.
-MODE			= МОДА					##	Возвращает значение моды множества данных.
-NEGBINOMDIST		= ОТРБИНОМРАСП				##	Возвращает отрицательное биномиальное распределение.
-NORMDIST		= НОРМРАСП				##	Возвращает нормальную функцию распределения.
-NORMINV			= НОРМОБР				##	Возвращает обратное нормальное распределение.
-NORMSDIST		= НОРМСТРАСП				##	Возвращает стандартное нормальное интегральное распределение.
-NORMSINV		= НОРМСТОБР				##	Возвращает обратное значение стандартного нормального распределения.
-PEARSON			= ПИРСОН				##	Возвращает коэффициент корреляции Пирсона.
-PERCENTILE		= ПЕРСЕНТИЛЬ				##	Возвращает k-ую персентиль для значений диапазона.
-PERCENTRANK		= ПРОЦЕНТРАНГ				##	Возвращает процентную норму значения в множестве данных.
-PERMUT			= ПЕРЕСТ				##	Возвращает количество перестановок для заданного числа объектов.
-POISSON			= ПУАССОН				##	Возвращает распределение Пуассона.
-PROB			= ВЕРОЯТНОСТЬ				##	Возвращает вероятность того, что значение из диапазона находится внутри заданных пределов.
-QUARTILE		= КВАРТИЛЬ				##	Возвращает квартиль множества данных.
-RANK			= РАНГ					##	Возвращает ранг числа в списке чисел.
-RSQ			= КВПИРСОН				##	Возвращает квадрат коэффициента корреляции Пирсона.
-SKEW			= СКОС					##	Возвращает асимметрию распределения.
-SLOPE			= НАКЛОН				##	Возвращает наклон линии линейной регрессии.
-SMALL			= НАИМЕНЬШИЙ				##	Возвращает k-ое наименьшее значение в множестве данных.
-STANDARDIZE		= НОРМАЛИЗАЦИЯ				##	Возвращает нормализованное значение.
-STDEV			= СТАНДОТКЛОН				##	Оценивает стандартное отклонение по выборке.
-STDEVA			= СТАНДОТКЛОНА				##	Оценивает стандартное отклонение по выборке, включая числа, текст и логические значения.
-STDEVP			= СТАНДОТКЛОНП				##	Вычисляет стандартное отклонение по генеральной совокупности.
-STDEVPA			= СТАНДОТКЛОНПА				##	Вычисляет стандартное отклонение по генеральной совокупности, включая числа, текст и логические значения.
-STEYX			= СТОШYX				##	Возвращает стандартную ошибку предсказанных значений y для каждого значения x в регрессии.
-TDIST			= СТЬЮДРАСП				##	Возвращает t-распределение Стьюдента.
-TINV			= СТЬЮДРАСПОБР				##	Возвращает обратное t-распределение Стьюдента.
-TREND			= ТЕНДЕНЦИЯ				##	Возвращает значения в соответствии с линейным трендом.
-TRIMMEAN		= УРЕЗСРЕДНЕЕ				##	Возвращает среднее внутренности множества данных.
-TTEST			= ТТЕСТ					##	Возвращает вероятность, соответствующую критерию Стьюдента.
-VAR			= ДИСП					##	Оценивает дисперсию по выборке.
-VARA			= ДИСПА					##	Оценивает дисперсию по выборке, включая числа, текст и логические значения.
-VARP			= ДИСПР					##	Вычисляет дисперсию для генеральной совокупности.
-VARPA			= ДИСПРА				##	Вычисляет дисперсию для генеральной совокупности, включая числа, текст и логические значения.
-WEIBULL			= ВЕЙБУЛЛ				##	Возвращает распределение Вейбулла.
-ZTEST			= ZТЕСТ					##	Возвращает двустороннее P-значение z-теста.</text>
-  </threadedComment>
-  <threadedComment ref="S451" dT="2023-08-22T02:59:48.73" personId="{EAE7CA6B-11B8-4DE7-B323-DC98103C3602}" id="{4BB940B1-F984-4562-9953-F98AB6C81E95}">
-    <text>ASC			= ASC					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полноширинные (двухбайтовые) знаки в полуширинные (однобайтовые).
-BAHTTEXT		= БАТТЕКСТ				##	Преобразует число в текст, используя денежный формат ß (БАТ).
-CHAR			= СИМВОЛ				##	Возвращает знак с заданным кодом.
-CLEAN			= ПЕЧСИМВ				##	Удаляет все непечатаемые знаки из текста.
-CODE			= КОДСИМВ				##	Возвращает числовой код первого знака в текстовой строке.
-CONCATENATE		= СЦЕПИТЬ				##	Объединяет несколько текстовых элементов в один.
-DOLLAR			= РУБЛЬ					##	Преобразует число в текст, используя денежный формат.
-EXACT			= СОВПАД				##	Проверяет идентичность двух текстовых значений.
-FIND			= НАЙТИ					##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
-FINDB			= НАЙТИБ				##	Ищет вхождения одного текстового значения в другом (с учетом регистра).
-FIXED			= ФИКСИРОВАННЫЙ				##	Форматирует число и преобразует его в текст с заданным числом десятичных знаков.
-JIS			= JIS					##	Для языков с двухбайтовыми наборами знаков (например, катакана) преобразует полуширинные (однобайтовые) знаки в текстовой строке в полноширинные (двухбайтовые).
-LEFT			= ЛЕВСИМВ				##	Возвращает крайние слева знаки текстового значения.
-LEFTB			= ЛЕВБ					##	Возвращает крайние слева знаки текстового значения.
-LEN			= ДЛСТР					##	Возвращает количество знаков в текстовой строке.
-LENB			= ДЛИНБ					##	Возвращает количество знаков в текстовой строке.
-LOWER			= СТРОЧН				##	Преобразует все буквы текста в строчные.
-MID			= ПСТР					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
-MIDB			= ПСТРБ					##	Возвращает заданное число знаков из строки текста, начиная с указанной позиции.
-PHONETIC		= PHONETIC				##	Извлекает фонетические (фуригана) знаки из текстовой строки.
-PROPER			= ПРОПНАЧ				##	Преобразует первую букву в каждом слове текста в прописную.
-REPLACE			= ЗАМЕНИТЬ				##	Заменяет знаки в тексте.
-REPLACEB		= ЗАМЕНИТЬБ				##	Заменяет знаки в тексте.
-REPT			= ПОВТОР				##	Повторяет текст заданное число раз.
-RIGHT			= ПРАВСИМВ				##	Возвращает крайние справа знаки текстовой строки.
-RIGHTB			= ПРАВБ					##	Возвращает крайние справа знаки текстовой строки.
-SEARCH			= ПОИСК					##	Ищет вхождения одного текстового значения в другом (без учета регистра).
-SEARCHB			= ПОИСКБ				##	Ищет вхождения одного текстового значения в другом (без учета регистра).
-SUBSTITUTE		= ПОДСТАВИТЬ				##	Заменяет в текстовой строке старый текст новым.
-T			= Т					##	Преобразует аргументы в текст.
-TEXT			= ТЕКСТ					##	Форматирует число и преобразует его в текст.
-TRIM			= СЖПРОБЕЛЫ				##	Удаляет из текста пробелы.
-UPPER			= ПРОПИСН				##	Преобразует все буквы текста в прописные.
-VALUE			= ЗНАЧЕН				##	Преобразует текстовый аргумент в число.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -21079,45 +20177,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A36666-6E7A-4A48-9C4E-B256160FF964}">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2510" ySplit="1160" topLeftCell="R4" activePane="topRight"/>
-      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>838</v>
       </c>
@@ -21196,14 +20292,8 @@
       <c r="AA1" s="1" t="s">
         <v>4758</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>6568</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>6569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>6495</v>
       </c>
@@ -21279,14 +20369,8 @@
       <c r="AA2" s="1" t="s">
         <v>4759</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>6566</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2004</v>
       </c>
@@ -21365,19 +20449,13 @@
       <c r="AA3" s="1" t="s">
         <v>4757</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>6566</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>6571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6469</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6470</v>
       </c>
@@ -21429,20 +20507,14 @@
       <c r="AA5" s="1" t="s">
         <v>6493</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>6470</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6343</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6344</v>
       </c>
@@ -21506,11 +20578,8 @@
       <c r="AA8" t="s">
         <v>6365</v>
       </c>
-      <c r="AC8" t="s">
-        <v>6573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6471</v>
       </c>
@@ -21559,11 +20628,8 @@
       <c r="AA9" t="s">
         <v>6379</v>
       </c>
-      <c r="AC9" t="s">
-        <v>6374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6472</v>
       </c>
@@ -21645,11 +20711,8 @@
       <c r="AA10" t="s">
         <v>6402</v>
       </c>
-      <c r="AC10" t="s">
-        <v>6574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6473</v>
       </c>
@@ -21704,11 +20767,8 @@
       <c r="AA11" t="s">
         <v>6417</v>
       </c>
-      <c r="AC11" t="s">
-        <v>6575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6474</v>
       </c>
@@ -21787,11 +20847,8 @@
       <c r="AA12" t="s">
         <v>6436</v>
       </c>
-      <c r="AC12" t="s">
-        <v>6576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6475</v>
       </c>
@@ -21855,11 +20912,8 @@
       <c r="AA13" t="s">
         <v>6452</v>
       </c>
-      <c r="AC13" t="s">
-        <v>6448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6476</v>
       </c>
@@ -21929,65 +20983,47 @@
       <c r="AA14" t="s">
         <v>6467</v>
       </c>
-      <c r="AC14" t="s">
-        <v>6463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>6565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB19" t="s">
-        <v>6567</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>6572</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31683534-79D8-42E0-A1E0-6E4CC43822BE}">
-  <dimension ref="A1:S550"/>
+  <dimension ref="A1:R550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5260" ySplit="1160" topLeftCell="Q4" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -22041,12 +21077,9 @@
       <c r="R1" s="1" t="s">
         <v>6079</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>6569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
       <c r="C2" s="1" t="s">
         <v>5768</v>
       </c>
@@ -22095,12 +21128,9 @@
       <c r="R2" s="1" t="s">
         <v>6492</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>2004</v>
       </c>
@@ -22152,11 +21182,8 @@
       <c r="R3" s="1" t="s">
         <v>3662</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>6571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>473</v>
       </c>
@@ -22211,11 +21238,8 @@
       <c r="R4" s="1" t="s">
         <v>5900</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>6577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -22267,11 +21291,8 @@
       <c r="R5" t="s">
         <v>3663</v>
       </c>
-      <c r="S5" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -22323,11 +21344,8 @@
       <c r="R6" t="s">
         <v>2009</v>
       </c>
-      <c r="S6" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -22379,11 +21397,8 @@
       <c r="R7" t="s">
         <v>3664</v>
       </c>
-      <c r="S7" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -22435,11 +21450,8 @@
       <c r="R8" t="s">
         <v>3665</v>
       </c>
-      <c r="S8" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -22491,11 +21503,8 @@
       <c r="R9" t="s">
         <v>3666</v>
       </c>
-      <c r="S9" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -22547,11 +21556,8 @@
       <c r="R10" t="s">
         <v>3667</v>
       </c>
-      <c r="S10" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -22603,11 +21609,8 @@
       <c r="R11" t="s">
         <v>3668</v>
       </c>
-      <c r="S11" t="s">
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>475</v>
       </c>
@@ -22662,11 +21665,8 @@
       <c r="R13" s="1" t="s">
         <v>5901</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>476</v>
       </c>
@@ -22718,11 +21718,8 @@
       <c r="R14" t="s">
         <v>3669</v>
       </c>
-      <c r="S14" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>478</v>
       </c>
@@ -22774,11 +21771,8 @@
       <c r="R15" t="s">
         <v>3670</v>
       </c>
-      <c r="S15" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>480</v>
       </c>
@@ -22830,11 +21824,8 @@
       <c r="R16" t="s">
         <v>3671</v>
       </c>
-      <c r="S16" t="s">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>482</v>
       </c>
@@ -22886,11 +21877,8 @@
       <c r="R17" t="s">
         <v>2018</v>
       </c>
-      <c r="S17" t="s">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>484</v>
       </c>
@@ -22942,11 +21930,8 @@
       <c r="R18" t="s">
         <v>2019</v>
       </c>
-      <c r="S18" t="s">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>486</v>
       </c>
@@ -22998,11 +21983,8 @@
       <c r="R19" t="s">
         <v>486</v>
       </c>
-      <c r="S19" t="s">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>488</v>
       </c>
@@ -23054,11 +22036,8 @@
       <c r="R20" t="s">
         <v>2020</v>
       </c>
-      <c r="S20" t="s">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>490</v>
       </c>
@@ -23110,11 +22089,8 @@
       <c r="R21" t="s">
         <v>3672</v>
       </c>
-      <c r="S21" t="s">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>492</v>
       </c>
@@ -23166,11 +22142,8 @@
       <c r="R22" t="s">
         <v>3673</v>
       </c>
-      <c r="S22" t="s">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>494</v>
       </c>
@@ -23222,11 +22195,8 @@
       <c r="R23" t="s">
         <v>3674</v>
       </c>
-      <c r="S23" t="s">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>496</v>
       </c>
@@ -23278,11 +22248,8 @@
       <c r="R24" t="s">
         <v>2023</v>
       </c>
-      <c r="S24" t="s">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>498</v>
       </c>
@@ -23334,11 +22301,8 @@
       <c r="R25" t="s">
         <v>2024</v>
       </c>
-      <c r="S25" t="s">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>474</v>
       </c>
@@ -23393,11 +22357,8 @@
       <c r="R27" s="1" t="s">
         <v>5902</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -23449,11 +22410,8 @@
       <c r="R28" t="s">
         <v>2025</v>
       </c>
-      <c r="S28" t="s">
-        <v>4345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>6080</v>
       </c>
@@ -23491,7 +22449,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>6146</v>
       </c>
@@ -23532,7 +22490,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -23584,11 +22542,8 @@
       <c r="R31" t="s">
         <v>3675</v>
       </c>
-      <c r="S31" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -23640,11 +22595,8 @@
       <c r="R32" t="s">
         <v>2027</v>
       </c>
-      <c r="S32" t="s">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -23697,7 +22649,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -23749,11 +22701,8 @@
       <c r="R34" t="s">
         <v>3677</v>
       </c>
-      <c r="S34" t="s">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -23805,11 +22754,8 @@
       <c r="R35" t="s">
         <v>3678</v>
       </c>
-      <c r="S35" t="s">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -23861,11 +22807,8 @@
       <c r="R36" t="s">
         <v>3679</v>
       </c>
-      <c r="S36" t="s">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -23917,11 +22860,8 @@
       <c r="R37" t="s">
         <v>45</v>
       </c>
-      <c r="S37" t="s">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -23974,7 +22914,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -24026,11 +22966,8 @@
       <c r="R39" t="s">
         <v>3681</v>
       </c>
-      <c r="S39" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -24082,11 +23019,8 @@
       <c r="R40" t="s">
         <v>2034</v>
       </c>
-      <c r="S40" t="s">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>37</v>
       </c>
@@ -24138,11 +23072,8 @@
       <c r="R41" t="s">
         <v>3682</v>
       </c>
-      <c r="S41" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -24195,7 +23126,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -24247,11 +23178,8 @@
       <c r="R43" t="s">
         <v>3684</v>
       </c>
-      <c r="S43" t="s">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>43</v>
       </c>
@@ -24303,11 +23231,8 @@
       <c r="R44" t="s">
         <v>2038</v>
       </c>
-      <c r="S44" t="s">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>6248</v>
       </c>
@@ -24351,7 +23276,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>6249</v>
       </c>
@@ -24395,7 +23320,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>6250</v>
       </c>
@@ -24439,7 +23364,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -24491,11 +23416,8 @@
       <c r="R48" t="s">
         <v>2039</v>
       </c>
-      <c r="S48" t="s">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -24547,11 +23469,8 @@
       <c r="R49" t="s">
         <v>3685</v>
       </c>
-      <c r="S49" t="s">
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>49</v>
       </c>
@@ -24603,11 +23522,8 @@
       <c r="R50" t="s">
         <v>2041</v>
       </c>
-      <c r="S50" t="s">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>51</v>
       </c>
@@ -24659,11 +23575,8 @@
       <c r="R51" t="s">
         <v>3686</v>
       </c>
-      <c r="S51" t="s">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>53</v>
       </c>
@@ -24715,11 +23628,8 @@
       <c r="R52" t="s">
         <v>3687</v>
       </c>
-      <c r="S52" t="s">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>55</v>
       </c>
@@ -24771,11 +23681,8 @@
       <c r="R53" t="s">
         <v>3688</v>
       </c>
-      <c r="S53" t="s">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -24828,7 +23735,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -24880,11 +23787,8 @@
       <c r="R55" t="s">
         <v>2046</v>
       </c>
-      <c r="S55" t="s">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -24936,11 +23840,8 @@
       <c r="R56" t="s">
         <v>3690</v>
       </c>
-      <c r="S56" t="s">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -24995,11 +23896,8 @@
       <c r="R58" s="1" t="s">
         <v>5903</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>64</v>
       </c>
@@ -25051,11 +23949,8 @@
       <c r="R59" t="s">
         <v>64</v>
       </c>
-      <c r="S59" t="s">
-        <v>4369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>65</v>
       </c>
@@ -25107,11 +24002,8 @@
       <c r="R60" t="s">
         <v>65</v>
       </c>
-      <c r="S60" t="s">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>66</v>
       </c>
@@ -25163,11 +24055,8 @@
       <c r="R61" t="s">
         <v>66</v>
       </c>
-      <c r="S61" t="s">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>67</v>
       </c>
@@ -25219,11 +24108,8 @@
       <c r="R62" t="s">
         <v>67</v>
       </c>
-      <c r="S62" t="s">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>68</v>
       </c>
@@ -25275,11 +24161,8 @@
       <c r="R63" t="s">
         <v>3691</v>
       </c>
-      <c r="S63" t="s">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -25331,11 +24214,8 @@
       <c r="R64" t="s">
         <v>3692</v>
       </c>
-      <c r="S64" t="s">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -25387,11 +24267,8 @@
       <c r="R65" t="s">
         <v>3693</v>
       </c>
-      <c r="S65" t="s">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -25444,7 +24321,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>76</v>
       </c>
@@ -25497,7 +24374,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>78</v>
       </c>
@@ -25550,7 +24427,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -25603,7 +24480,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -25656,7 +24533,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>84</v>
       </c>
@@ -25708,11 +24585,8 @@
       <c r="R71" t="s">
         <v>2056</v>
       </c>
-      <c r="S71" t="s">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>86</v>
       </c>
@@ -25764,11 +24638,8 @@
       <c r="R72" t="s">
         <v>2057</v>
       </c>
-      <c r="S72" t="s">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>87</v>
       </c>
@@ -25820,11 +24691,8 @@
       <c r="R73" t="s">
         <v>3697</v>
       </c>
-      <c r="S73" t="s">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>89</v>
       </c>
@@ -25876,11 +24744,8 @@
       <c r="R74" t="s">
         <v>3698</v>
       </c>
-      <c r="S74" t="s">
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -25932,11 +24797,8 @@
       <c r="R75" t="s">
         <v>3699</v>
       </c>
-      <c r="S75" t="s">
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>93</v>
       </c>
@@ -25988,11 +24850,8 @@
       <c r="R76" t="s">
         <v>93</v>
       </c>
-      <c r="S76" t="s">
-        <v>4386</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>94</v>
       </c>
@@ -26044,11 +24903,8 @@
       <c r="R77" t="s">
         <v>3700</v>
       </c>
-      <c r="S77" t="s">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>95</v>
       </c>
@@ -26101,7 +24957,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>97</v>
       </c>
@@ -26153,11 +25009,8 @@
       <c r="R79" t="s">
         <v>3702</v>
       </c>
-      <c r="S79" t="s">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>98</v>
       </c>
@@ -26210,7 +25063,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>100</v>
       </c>
@@ -26262,11 +25115,8 @@
       <c r="R81" t="s">
         <v>3704</v>
       </c>
-      <c r="S81" t="s">
-        <v>4391</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>102</v>
       </c>
@@ -26318,11 +25168,8 @@
       <c r="R82" t="s">
         <v>3705</v>
       </c>
-      <c r="S82" t="s">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>104</v>
       </c>
@@ -26374,11 +25221,8 @@
       <c r="R83" t="s">
         <v>3706</v>
       </c>
-      <c r="S83" t="s">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>106</v>
       </c>
@@ -26430,11 +25274,8 @@
       <c r="R84" t="s">
         <v>3707</v>
       </c>
-      <c r="S84" t="s">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>108</v>
       </c>
@@ -26486,11 +25327,8 @@
       <c r="R85" t="s">
         <v>108</v>
       </c>
-      <c r="S85" t="s">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>110</v>
       </c>
@@ -26542,11 +25380,8 @@
       <c r="R86" t="s">
         <v>2068</v>
       </c>
-      <c r="S86" t="s">
-        <v>4396</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>112</v>
       </c>
@@ -26598,11 +25433,8 @@
       <c r="R87" t="s">
         <v>112</v>
       </c>
-      <c r="S87" t="s">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>114</v>
       </c>
@@ -26654,11 +25486,8 @@
       <c r="R88" t="s">
         <v>3708</v>
       </c>
-      <c r="S88" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>116</v>
       </c>
@@ -26710,11 +25539,8 @@
       <c r="R89" t="s">
         <v>116</v>
       </c>
-      <c r="S89" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>118</v>
       </c>
@@ -26767,7 +25593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>120</v>
       </c>
@@ -26820,7 +25646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>122</v>
       </c>
@@ -26873,7 +25699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>124</v>
       </c>
@@ -26926,7 +25752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>126</v>
       </c>
@@ -26978,11 +25804,8 @@
       <c r="R94" t="s">
         <v>126</v>
       </c>
-      <c r="S94" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>128</v>
       </c>
@@ -27034,11 +25857,8 @@
       <c r="R95" t="s">
         <v>3709</v>
       </c>
-      <c r="S95" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>130</v>
       </c>
@@ -27090,11 +25910,8 @@
       <c r="R96" t="s">
         <v>130</v>
       </c>
-      <c r="S96" t="s">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>132</v>
       </c>
@@ -27146,11 +25963,8 @@
       <c r="R97" t="s">
         <v>132</v>
       </c>
-      <c r="S97" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>134</v>
       </c>
@@ -27202,11 +26016,8 @@
       <c r="R98" t="s">
         <v>134</v>
       </c>
-      <c r="S98" t="s">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>136</v>
       </c>
@@ -27258,11 +26069,8 @@
       <c r="R99" t="s">
         <v>3710</v>
       </c>
-      <c r="S99" t="s">
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>138</v>
       </c>
@@ -27314,11 +26122,8 @@
       <c r="R100" t="s">
         <v>1702</v>
       </c>
-      <c r="S100" t="s">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>140</v>
       </c>
@@ -27370,11 +26175,8 @@
       <c r="R101" t="s">
         <v>3711</v>
       </c>
-      <c r="S101" t="s">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>142</v>
       </c>
@@ -27427,7 +26229,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>144</v>
       </c>
@@ -27480,7 +26282,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>146</v>
       </c>
@@ -27532,11 +26334,8 @@
       <c r="R104" t="s">
         <v>146</v>
       </c>
-      <c r="S104" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>148</v>
       </c>
@@ -27589,7 +26388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>150</v>
       </c>
@@ -27641,11 +26440,8 @@
       <c r="R106" t="s">
         <v>3712</v>
       </c>
-      <c r="S106" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>152</v>
       </c>
@@ -27697,11 +26493,8 @@
       <c r="R107" t="s">
         <v>152</v>
       </c>
-      <c r="S107" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>154</v>
       </c>
@@ -27753,11 +26546,8 @@
       <c r="R108" t="s">
         <v>3713</v>
       </c>
-      <c r="S108" t="s">
-        <v>4418</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>156</v>
       </c>
@@ -27810,7 +26600,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>158</v>
       </c>
@@ -27862,11 +26652,8 @@
       <c r="R110" t="s">
         <v>3714</v>
       </c>
-      <c r="S110" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>160</v>
       </c>
@@ -27918,11 +26705,8 @@
       <c r="R111" t="s">
         <v>3715</v>
       </c>
-      <c r="S111" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>162</v>
       </c>
@@ -27974,11 +26758,8 @@
       <c r="R112" t="s">
         <v>3716</v>
       </c>
-      <c r="S112" t="s">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>164</v>
       </c>
@@ -28033,11 +26814,8 @@
       <c r="R114" s="1" t="s">
         <v>5904</v>
       </c>
-      <c r="S114" s="1" t="s">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>165</v>
       </c>
@@ -28089,11 +26867,8 @@
       <c r="R115" t="s">
         <v>3717</v>
       </c>
-      <c r="S115" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>167</v>
       </c>
@@ -28145,11 +26920,8 @@
       <c r="R116" t="s">
         <v>3718</v>
       </c>
-      <c r="S116" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>169</v>
       </c>
@@ -28201,11 +26973,8 @@
       <c r="R117" t="s">
         <v>169</v>
       </c>
-      <c r="S117" t="s">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>170</v>
       </c>
@@ -28257,11 +27026,8 @@
       <c r="R118" t="s">
         <v>170</v>
       </c>
-      <c r="S118" t="s">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>171</v>
       </c>
@@ -28313,11 +27079,8 @@
       <c r="R119" t="s">
         <v>3719</v>
       </c>
-      <c r="S119" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>173</v>
       </c>
@@ -28369,11 +27132,8 @@
       <c r="R120" t="s">
         <v>3720</v>
       </c>
-      <c r="S120" t="s">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>175</v>
       </c>
@@ -28425,11 +27185,8 @@
       <c r="R121" t="s">
         <v>3721</v>
       </c>
-      <c r="S121" t="s">
-        <v>4429</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>177</v>
       </c>
@@ -28481,11 +27238,8 @@
       <c r="R122" t="s">
         <v>3722</v>
       </c>
-      <c r="S122" t="s">
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>179</v>
       </c>
@@ -28537,11 +27291,8 @@
       <c r="R123" t="s">
         <v>3723</v>
       </c>
-      <c r="S123" t="s">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>181</v>
       </c>
@@ -28593,11 +27344,8 @@
       <c r="R124" t="s">
         <v>3724</v>
       </c>
-      <c r="S124" t="s">
-        <v>4432</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>183</v>
       </c>
@@ -28649,11 +27397,8 @@
       <c r="R125" t="s">
         <v>3725</v>
       </c>
-      <c r="S125" t="s">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>185</v>
       </c>
@@ -28705,11 +27450,8 @@
       <c r="R126" t="s">
         <v>3726</v>
       </c>
-      <c r="S126" t="s">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>187</v>
       </c>
@@ -28761,11 +27503,8 @@
       <c r="R127" t="s">
         <v>3727</v>
       </c>
-      <c r="S127" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>188</v>
       </c>
@@ -28817,11 +27556,8 @@
       <c r="R128" t="s">
         <v>3728</v>
       </c>
-      <c r="S128" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>189</v>
       </c>
@@ -28873,11 +27609,8 @@
       <c r="R129" t="s">
         <v>3729</v>
       </c>
-      <c r="S129" t="s">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>191</v>
       </c>
@@ -28929,11 +27662,8 @@
       <c r="R130" t="s">
         <v>191</v>
       </c>
-      <c r="S130" t="s">
-        <v>4438</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>193</v>
       </c>
@@ -28985,11 +27715,8 @@
       <c r="R131" t="s">
         <v>3730</v>
       </c>
-      <c r="S131" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>195</v>
       </c>
@@ -29041,11 +27768,8 @@
       <c r="R132" t="s">
         <v>3731</v>
       </c>
-      <c r="S132" t="s">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>197</v>
       </c>
@@ -29097,11 +27821,8 @@
       <c r="R133" t="s">
         <v>2110</v>
       </c>
-      <c r="S133" t="s">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>199</v>
       </c>
@@ -29153,11 +27874,8 @@
       <c r="R134" t="s">
         <v>3732</v>
       </c>
-      <c r="S134" t="s">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>201</v>
       </c>
@@ -29209,11 +27927,8 @@
       <c r="R135" t="s">
         <v>3733</v>
       </c>
-      <c r="S135" t="s">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>203</v>
       </c>
@@ -29265,11 +27980,8 @@
       <c r="R136" t="s">
         <v>3734</v>
       </c>
-      <c r="S136" t="s">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>205</v>
       </c>
@@ -29321,11 +28033,8 @@
       <c r="R137" t="s">
         <v>3735</v>
       </c>
-      <c r="S137" t="s">
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>207</v>
       </c>
@@ -29377,11 +28086,8 @@
       <c r="R138" t="s">
         <v>3410</v>
       </c>
-      <c r="S138" t="s">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>209</v>
       </c>
@@ -29433,11 +28139,8 @@
       <c r="R139" t="s">
         <v>3736</v>
       </c>
-      <c r="S139" t="s">
-        <v>4447</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>210</v>
       </c>
@@ -29489,11 +28192,8 @@
       <c r="R140" t="s">
         <v>3737</v>
       </c>
-      <c r="S140" t="s">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>212</v>
       </c>
@@ -29545,11 +28245,8 @@
       <c r="R141" t="s">
         <v>3738</v>
       </c>
-      <c r="S141" t="s">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>214</v>
       </c>
@@ -29601,11 +28298,8 @@
       <c r="R142" t="s">
         <v>3739</v>
       </c>
-      <c r="S142" t="s">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>216</v>
       </c>
@@ -29657,11 +28351,8 @@
       <c r="R143" t="s">
         <v>3740</v>
       </c>
-      <c r="S143" t="s">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>218</v>
       </c>
@@ -29713,11 +28404,8 @@
       <c r="R144" t="s">
         <v>3741</v>
       </c>
-      <c r="S144" t="s">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>220</v>
       </c>
@@ -29769,11 +28457,8 @@
       <c r="R145" t="s">
         <v>3742</v>
       </c>
-      <c r="S145" t="s">
-        <v>4453</v>
-      </c>
-    </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>222</v>
       </c>
@@ -29825,11 +28510,8 @@
       <c r="R146" t="s">
         <v>3743</v>
       </c>
-      <c r="S146" t="s">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>224</v>
       </c>
@@ -29881,11 +28563,8 @@
       <c r="R147" t="s">
         <v>3744</v>
       </c>
-      <c r="S147" t="s">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>226</v>
       </c>
@@ -29937,11 +28616,8 @@
       <c r="R148" t="s">
         <v>3745</v>
       </c>
-      <c r="S148" t="s">
-        <v>4456</v>
-      </c>
-    </row>
-    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>228</v>
       </c>
@@ -29994,7 +28670,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>230</v>
       </c>
@@ -30046,11 +28722,8 @@
       <c r="R150" t="s">
         <v>3747</v>
       </c>
-      <c r="S150" t="s">
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>232</v>
       </c>
@@ -30102,11 +28775,8 @@
       <c r="R151" t="s">
         <v>3748</v>
       </c>
-      <c r="S151" t="s">
-        <v>4459</v>
-      </c>
-    </row>
-    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>234</v>
       </c>
@@ -30158,11 +28828,8 @@
       <c r="R152" t="s">
         <v>3749</v>
       </c>
-      <c r="S152" t="s">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>236</v>
       </c>
@@ -30214,11 +28881,8 @@
       <c r="R153" t="s">
         <v>3750</v>
       </c>
-      <c r="S153" t="s">
-        <v>4461</v>
-      </c>
-    </row>
-    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>238</v>
       </c>
@@ -30270,11 +28934,8 @@
       <c r="R154" t="s">
         <v>3751</v>
       </c>
-      <c r="S154" t="s">
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>240</v>
       </c>
@@ -30326,11 +28987,8 @@
       <c r="R155" t="s">
         <v>3752</v>
       </c>
-      <c r="S155" t="s">
-        <v>4463</v>
-      </c>
-    </row>
-    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>242</v>
       </c>
@@ -30382,11 +29040,8 @@
       <c r="R156" t="s">
         <v>2128</v>
       </c>
-      <c r="S156" t="s">
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>244</v>
       </c>
@@ -30438,11 +29093,8 @@
       <c r="R157" t="s">
         <v>3753</v>
       </c>
-      <c r="S157" t="s">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>246</v>
       </c>
@@ -30495,7 +29147,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>248</v>
       </c>
@@ -30547,11 +29199,8 @@
       <c r="R159" t="s">
         <v>3755</v>
       </c>
-      <c r="S159" t="s">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>250</v>
       </c>
@@ -30603,11 +29252,8 @@
       <c r="R160" t="s">
         <v>3756</v>
       </c>
-      <c r="S160" t="s">
-        <v>4468</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>251</v>
       </c>
@@ -30659,11 +29305,8 @@
       <c r="R161" t="s">
         <v>3757</v>
       </c>
-      <c r="S161" t="s">
-        <v>4469</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>253</v>
       </c>
@@ -30715,11 +29358,8 @@
       <c r="R162" t="s">
         <v>3758</v>
       </c>
-      <c r="S162" t="s">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>255</v>
       </c>
@@ -30771,11 +29411,8 @@
       <c r="R163" t="s">
         <v>3759</v>
       </c>
-      <c r="S163" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>6145</v>
       </c>
@@ -30783,7 +29420,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>257</v>
       </c>
@@ -30835,11 +29472,8 @@
       <c r="R165" t="s">
         <v>3760</v>
       </c>
-      <c r="S165" t="s">
-        <v>4472</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>258</v>
       </c>
@@ -30891,11 +29525,8 @@
       <c r="R166" t="s">
         <v>3761</v>
       </c>
-      <c r="S166" t="s">
-        <v>4473</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>260</v>
       </c>
@@ -30947,11 +29578,8 @@
       <c r="R167" t="s">
         <v>3762</v>
       </c>
-      <c r="S167" t="s">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>262</v>
       </c>
@@ -31003,11 +29631,8 @@
       <c r="R168" t="s">
         <v>3763</v>
       </c>
-      <c r="S168" t="s">
-        <v>4475</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>264</v>
       </c>
@@ -31059,11 +29684,8 @@
       <c r="R169" t="s">
         <v>3764</v>
       </c>
-      <c r="S169" t="s">
-        <v>4476</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>266</v>
       </c>
@@ -31115,11 +29737,8 @@
       <c r="R170" t="s">
         <v>3765</v>
       </c>
-      <c r="S170" t="s">
-        <v>4477</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>268</v>
       </c>
@@ -31174,11 +29793,8 @@
       <c r="R172" s="1" t="s">
         <v>5905</v>
       </c>
-      <c r="S172" s="1" t="s">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>269</v>
       </c>
@@ -31230,11 +29846,8 @@
       <c r="R173" t="s">
         <v>2141</v>
       </c>
-      <c r="S173" t="s">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>271</v>
       </c>
@@ -31286,11 +29899,8 @@
       <c r="R174" t="s">
         <v>3766</v>
       </c>
-      <c r="S174" t="s">
-        <v>4479</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>273</v>
       </c>
@@ -31342,11 +29952,8 @@
       <c r="R175" t="s">
         <v>273</v>
       </c>
-      <c r="S175" t="s">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>275</v>
       </c>
@@ -31398,11 +30005,8 @@
       <c r="R176" t="s">
         <v>3767</v>
       </c>
-      <c r="S176" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>277</v>
       </c>
@@ -31454,11 +30058,8 @@
       <c r="R177" t="s">
         <v>94</v>
       </c>
-      <c r="S177" t="s">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>279</v>
       </c>
@@ -31510,11 +30111,8 @@
       <c r="R178" t="s">
         <v>3768</v>
       </c>
-      <c r="S178" t="s">
-        <v>4483</v>
-      </c>
-    </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>281</v>
       </c>
@@ -31566,11 +30164,8 @@
       <c r="R179" t="s">
         <v>3769</v>
       </c>
-      <c r="S179" t="s">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>283</v>
       </c>
@@ -31623,7 +30218,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>285</v>
       </c>
@@ -31675,11 +30270,8 @@
       <c r="R181" t="s">
         <v>3771</v>
       </c>
-      <c r="S181" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>287</v>
       </c>
@@ -31731,11 +30323,8 @@
       <c r="R182" t="s">
         <v>3772</v>
       </c>
-      <c r="S182" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>289</v>
       </c>
@@ -31787,11 +30376,8 @@
       <c r="R183" t="s">
         <v>3773</v>
       </c>
-      <c r="S183" t="s">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>291</v>
       </c>
@@ -31843,11 +30429,8 @@
       <c r="R184" t="s">
         <v>3774</v>
       </c>
-      <c r="S184" t="s">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>293</v>
       </c>
@@ -31899,16 +30482,13 @@
       <c r="R185" t="s">
         <v>3775</v>
       </c>
-      <c r="S185" t="s">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="186" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>6556</v>
       </c>
     </row>
-    <row r="187" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>295</v>
       </c>
@@ -31960,11 +30540,8 @@
       <c r="R187" t="s">
         <v>3776</v>
       </c>
-      <c r="S187" t="s">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>297</v>
       </c>
@@ -32016,11 +30593,8 @@
       <c r="R188" t="s">
         <v>3777</v>
       </c>
-      <c r="S188" t="s">
-        <v>4492</v>
-      </c>
-    </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>299</v>
       </c>
@@ -32072,11 +30646,8 @@
       <c r="R189" t="s">
         <v>299</v>
       </c>
-      <c r="S189" t="s">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="190" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>300</v>
       </c>
@@ -32128,11 +30699,8 @@
       <c r="R190" t="s">
         <v>3778</v>
       </c>
-      <c r="S190" t="s">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="191" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>301</v>
       </c>
@@ -32185,7 +30753,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>303</v>
       </c>
@@ -32238,7 +30806,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>305</v>
       </c>
@@ -32290,11 +30858,8 @@
       <c r="R193" t="s">
         <v>3780</v>
       </c>
-      <c r="S193" t="s">
-        <v>4497</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>500</v>
       </c>
@@ -32349,11 +30914,8 @@
       <c r="R195" s="1" t="s">
         <v>5906</v>
       </c>
-      <c r="S195" s="1" t="s">
-        <v>6007</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>306</v>
       </c>
@@ -32405,21 +30967,18 @@
       <c r="R196" t="s">
         <v>2160</v>
       </c>
-      <c r="S196" t="s">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>6557</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>6558</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
         <v>3944</v>
       </c>
@@ -32471,11 +31030,8 @@
       <c r="R199" s="2" t="s">
         <v>3781</v>
       </c>
-      <c r="S199" t="s">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>309</v>
       </c>
@@ -32527,11 +31083,8 @@
       <c r="R200" t="s">
         <v>2162</v>
       </c>
-      <c r="S200" t="s">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>311</v>
       </c>
@@ -32583,11 +31136,8 @@
       <c r="R201" t="s">
         <v>3782</v>
       </c>
-      <c r="S201" t="s">
-        <v>4501</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>313</v>
       </c>
@@ -32640,7 +31190,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>315</v>
       </c>
@@ -32693,27 +31243,27 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>6562</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>6563</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>6564</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>6559</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>317</v>
       </c>
@@ -32765,11 +31315,8 @@
       <c r="R208" t="s">
         <v>2166</v>
       </c>
-      <c r="S208" t="s">
-        <v>4504</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>319</v>
       </c>
@@ -32821,21 +31368,18 @@
       <c r="R209" t="s">
         <v>2167</v>
       </c>
-      <c r="S209" t="s">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>6560</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>6561</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>321</v>
       </c>
@@ -32888,7 +31432,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B213" s="2" t="s">
         <v>3945</v>
       </c>
@@ -32940,11 +31484,8 @@
       <c r="R213" s="2" t="s">
         <v>3786</v>
       </c>
-      <c r="S213" t="s">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>324</v>
       </c>
@@ -32997,7 +31538,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="216" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>326</v>
       </c>
@@ -33052,11 +31593,8 @@
       <c r="R216" s="1" t="s">
         <v>5907</v>
       </c>
-      <c r="S216" s="1" t="s">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>327</v>
       </c>
@@ -33108,11 +31646,8 @@
       <c r="R217" t="s">
         <v>328</v>
       </c>
-      <c r="S217" t="s">
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>329</v>
       </c>
@@ -33164,11 +31699,8 @@
       <c r="R218" t="s">
         <v>2171</v>
       </c>
-      <c r="S218" t="s">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>331</v>
       </c>
@@ -33220,11 +31752,8 @@
       <c r="R219" t="s">
         <v>3788</v>
       </c>
-      <c r="S219" t="s">
-        <v>4511</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>333</v>
       </c>
@@ -33276,11 +31805,8 @@
       <c r="R220" t="s">
         <v>2173</v>
       </c>
-      <c r="S220" t="s">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>335</v>
       </c>
@@ -33332,11 +31858,8 @@
       <c r="R221" t="s">
         <v>2174</v>
       </c>
-      <c r="S221" t="s">
-        <v>4513</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>6081</v>
       </c>
@@ -33344,7 +31867,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>337</v>
       </c>
@@ -33397,7 +31920,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>339</v>
       </c>
@@ -33449,11 +31972,8 @@
       <c r="R224" t="s">
         <v>3789</v>
       </c>
-      <c r="S224" t="s">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="225" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>341</v>
       </c>
@@ -33505,11 +32025,8 @@
       <c r="R225" t="s">
         <v>3790</v>
       </c>
-      <c r="S225" t="s">
-        <v>4516</v>
-      </c>
-    </row>
-    <row r="226" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>343</v>
       </c>
@@ -33561,11 +32078,8 @@
       <c r="R226" t="s">
         <v>3791</v>
       </c>
-      <c r="S226" t="s">
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="227" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>345</v>
       </c>
@@ -33617,11 +32131,8 @@
       <c r="R227" t="s">
         <v>2177</v>
       </c>
-      <c r="S227" t="s">
-        <v>4518</v>
-      </c>
-    </row>
-    <row r="228" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>346</v>
       </c>
@@ -33673,11 +32184,8 @@
       <c r="R228" t="s">
         <v>2178</v>
       </c>
-      <c r="S228" t="s">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="229" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>347</v>
       </c>
@@ -33729,11 +32237,8 @@
       <c r="R229" t="s">
         <v>3792</v>
       </c>
-      <c r="S229" t="s">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="230" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>349</v>
       </c>
@@ -33785,11 +32290,8 @@
       <c r="R230" t="s">
         <v>3793</v>
       </c>
-      <c r="S230" t="s">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>351</v>
       </c>
@@ -33841,11 +32343,8 @@
       <c r="R231" t="s">
         <v>3794</v>
       </c>
-      <c r="S231" t="s">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="232" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>353</v>
       </c>
@@ -33897,11 +32396,8 @@
       <c r="R232" t="s">
         <v>3795</v>
       </c>
-      <c r="S232" t="s">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>355</v>
       </c>
@@ -33953,11 +32449,8 @@
       <c r="R233" t="s">
         <v>3796</v>
       </c>
-      <c r="S233" t="s">
-        <v>4524</v>
-      </c>
-    </row>
-    <row r="234" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>357</v>
       </c>
@@ -34009,11 +32502,8 @@
       <c r="R234" t="s">
         <v>357</v>
       </c>
-      <c r="S234" t="s">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>6082</v>
       </c>
@@ -34021,7 +32511,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>6083</v>
       </c>
@@ -34029,7 +32519,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>358</v>
       </c>
@@ -34081,11 +32571,8 @@
       <c r="R237" t="s">
         <v>1426</v>
       </c>
-      <c r="S237" t="s">
-        <v>4526</v>
-      </c>
-    </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>6084</v>
       </c>
@@ -34093,7 +32580,7 @@
         <v>6519</v>
       </c>
     </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>359</v>
       </c>
@@ -34145,11 +32632,8 @@
       <c r="R239" t="s">
         <v>3797</v>
       </c>
-      <c r="S239" t="s">
-        <v>4527</v>
-      </c>
-    </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>6085</v>
       </c>
@@ -34157,7 +32641,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>6086</v>
       </c>
@@ -34165,7 +32649,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>6549</v>
       </c>
@@ -34203,7 +32687,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="244" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>361</v>
       </c>
@@ -34258,11 +32742,8 @@
       <c r="R244" s="1" t="s">
         <v>5908</v>
       </c>
-      <c r="S244" s="1" t="s">
-        <v>6009</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>362</v>
       </c>
@@ -34314,11 +32795,8 @@
       <c r="R245" t="s">
         <v>362</v>
       </c>
-      <c r="S245" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>363</v>
       </c>
@@ -34370,11 +32848,8 @@
       <c r="R246" t="s">
         <v>1803</v>
       </c>
-      <c r="S246" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>364</v>
       </c>
@@ -34426,11 +32901,8 @@
       <c r="R247" t="s">
         <v>2185</v>
       </c>
-      <c r="S247" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>365</v>
       </c>
@@ -34483,7 +32955,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>366</v>
       </c>
@@ -34536,7 +33008,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>367</v>
       </c>
@@ -34589,7 +33061,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>369</v>
       </c>
@@ -34642,7 +33114,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>371</v>
       </c>
@@ -34694,11 +33166,8 @@
       <c r="R252" t="s">
         <v>1809</v>
       </c>
-      <c r="S252" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>372</v>
       </c>
@@ -34750,11 +33219,8 @@
       <c r="R253" t="s">
         <v>2189</v>
       </c>
-      <c r="S253" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>373</v>
       </c>
@@ -34806,11 +33272,8 @@
       <c r="R254" t="s">
         <v>1811</v>
       </c>
-      <c r="S254" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>374</v>
       </c>
@@ -34862,11 +33325,8 @@
       <c r="R255" t="s">
         <v>1812</v>
       </c>
-      <c r="S255" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>375</v>
       </c>
@@ -34918,11 +33378,8 @@
       <c r="R256" t="s">
         <v>2190</v>
       </c>
-      <c r="S256" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="257" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>376</v>
       </c>
@@ -34975,7 +33432,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="258" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>377</v>
       </c>
@@ -35028,7 +33485,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="259" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>6087</v>
       </c>
@@ -35078,17 +33535,17 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="260" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>6546</v>
       </c>
     </row>
-    <row r="261" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>6547</v>
       </c>
     </row>
-    <row r="262" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>379</v>
       </c>
@@ -35140,11 +33597,8 @@
       <c r="R262" t="s">
         <v>3801</v>
       </c>
-      <c r="S262" t="s">
-        <v>4532</v>
-      </c>
-    </row>
-    <row r="263" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>380</v>
       </c>
@@ -35197,7 +33651,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="264" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>381</v>
       </c>
@@ -35249,11 +33703,8 @@
       <c r="R264" t="s">
         <v>381</v>
       </c>
-      <c r="S264" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="265" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>382</v>
       </c>
@@ -35305,11 +33756,8 @@
       <c r="R265" t="s">
         <v>382</v>
       </c>
-      <c r="S265" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="266" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>383</v>
       </c>
@@ -35362,7 +33810,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="267" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>384</v>
       </c>
@@ -35415,7 +33863,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>385</v>
       </c>
@@ -35468,7 +33916,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>386</v>
       </c>
@@ -35521,7 +33969,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="270" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>387</v>
       </c>
@@ -35574,7 +34022,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="271" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>388</v>
       </c>
@@ -35626,16 +34074,13 @@
       <c r="R271" t="s">
         <v>2194</v>
       </c>
-      <c r="S271" t="s">
-        <v>4535</v>
-      </c>
-    </row>
-    <row r="272" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>6545</v>
       </c>
     </row>
-    <row r="273" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>6129</v>
       </c>
@@ -35685,7 +34130,7 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="274" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>390</v>
       </c>
@@ -35737,11 +34182,8 @@
       <c r="R274" t="s">
         <v>3804</v>
       </c>
-      <c r="S274" t="s">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="275" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>392</v>
       </c>
@@ -35793,16 +34235,13 @@
       <c r="R275" t="s">
         <v>2196</v>
       </c>
-      <c r="S275" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="276" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>6548</v>
       </c>
     </row>
-    <row r="277" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>393</v>
       </c>
@@ -35854,11 +34293,8 @@
       <c r="R277" t="s">
         <v>2197</v>
       </c>
-      <c r="S277" t="s">
-        <v>4537</v>
-      </c>
-    </row>
-    <row r="278" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>394</v>
       </c>
@@ -35910,11 +34346,8 @@
       <c r="R278" t="s">
         <v>3805</v>
       </c>
-      <c r="S278" t="s">
-        <v>4538</v>
-      </c>
-    </row>
-    <row r="279" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>395</v>
       </c>
@@ -35967,7 +34400,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="280" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>6088</v>
       </c>
@@ -36017,7 +34450,7 @@
         <v>6172</v>
       </c>
     </row>
-    <row r="281" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>397</v>
       </c>
@@ -36069,16 +34502,13 @@
       <c r="R281" t="s">
         <v>3807</v>
       </c>
-      <c r="S281" t="s">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="282" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>6538</v>
       </c>
     </row>
-    <row r="283" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>399</v>
       </c>
@@ -36130,11 +34560,8 @@
       <c r="R283" t="s">
         <v>3808</v>
       </c>
-      <c r="S283" t="s">
-        <v>4541</v>
-      </c>
-    </row>
-    <row r="284" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>6089</v>
       </c>
@@ -36184,7 +34611,7 @@
         <v>6187</v>
       </c>
     </row>
-    <row r="285" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>401</v>
       </c>
@@ -36236,11 +34663,8 @@
       <c r="R285" t="s">
         <v>3809</v>
       </c>
-      <c r="S285" t="s">
-        <v>4542</v>
-      </c>
-    </row>
-    <row r="286" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>403</v>
       </c>
@@ -36292,11 +34716,8 @@
       <c r="R286" t="s">
         <v>403</v>
       </c>
-      <c r="S286" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="287" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>404</v>
       </c>
@@ -36348,11 +34769,8 @@
       <c r="R287" t="s">
         <v>404</v>
       </c>
-      <c r="S287" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="288" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>405</v>
       </c>
@@ -36404,11 +34822,8 @@
       <c r="R288" t="s">
         <v>405</v>
       </c>
-      <c r="S288" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="289" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>406</v>
       </c>
@@ -36460,11 +34875,8 @@
       <c r="R289" t="s">
         <v>406</v>
       </c>
-      <c r="S289" t="s">
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="290" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>408</v>
       </c>
@@ -36516,11 +34928,8 @@
       <c r="R290" t="s">
         <v>3810</v>
       </c>
-      <c r="S290" t="s">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="291" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>410</v>
       </c>
@@ -36572,11 +34981,8 @@
       <c r="R291" t="s">
         <v>410</v>
       </c>
-      <c r="S291" t="s">
-        <v>4545</v>
-      </c>
-    </row>
-    <row r="292" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>412</v>
       </c>
@@ -36628,11 +35034,8 @@
       <c r="R292" t="s">
         <v>1833</v>
       </c>
-      <c r="S292" t="s">
-        <v>4546</v>
-      </c>
-    </row>
-    <row r="293" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>413</v>
       </c>
@@ -36684,11 +35087,8 @@
       <c r="R293" t="s">
         <v>3811</v>
       </c>
-      <c r="S293" t="s">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="294" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>415</v>
       </c>
@@ -36740,11 +35140,8 @@
       <c r="R294" t="s">
         <v>3812</v>
       </c>
-      <c r="S294" t="s">
-        <v>4548</v>
-      </c>
-    </row>
-    <row r="295" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>417</v>
       </c>
@@ -36797,7 +35194,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="296" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>419</v>
       </c>
@@ -36849,11 +35246,8 @@
       <c r="R296" t="s">
         <v>3814</v>
       </c>
-      <c r="S296" t="s">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="297" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>421</v>
       </c>
@@ -36905,11 +35299,8 @@
       <c r="R297" t="s">
         <v>421</v>
       </c>
-      <c r="S297" t="s">
-        <v>4551</v>
-      </c>
-    </row>
-    <row r="298" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>422</v>
       </c>
@@ -36961,11 +35352,8 @@
       <c r="R298" t="s">
         <v>3815</v>
       </c>
-      <c r="S298" t="s">
-        <v>4552</v>
-      </c>
-    </row>
-    <row r="299" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>424</v>
       </c>
@@ -37017,11 +35405,8 @@
       <c r="R299" t="s">
         <v>1839</v>
       </c>
-      <c r="S299" t="s">
-        <v>4553</v>
-      </c>
-    </row>
-    <row r="300" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>426</v>
       </c>
@@ -37073,11 +35458,8 @@
       <c r="R300" t="s">
         <v>2209</v>
       </c>
-      <c r="S300" t="s">
-        <v>4554</v>
-      </c>
-    </row>
-    <row r="301" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>427</v>
       </c>
@@ -37129,11 +35511,8 @@
       <c r="R301" t="s">
         <v>2210</v>
       </c>
-      <c r="S301" t="s">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="302" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>428</v>
       </c>
@@ -37185,11 +35564,8 @@
       <c r="R302" t="s">
         <v>3816</v>
       </c>
-      <c r="S302" t="s">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="303" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>6090</v>
       </c>
@@ -37197,7 +35573,7 @@
         <v>6522</v>
       </c>
     </row>
-    <row r="304" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>430</v>
       </c>
@@ -37249,11 +35625,8 @@
       <c r="R304" t="s">
         <v>3817</v>
       </c>
-      <c r="S304" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="305" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>432</v>
       </c>
@@ -37305,11 +35678,8 @@
       <c r="R305" t="s">
         <v>3818</v>
       </c>
-      <c r="S305" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="306" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>434</v>
       </c>
@@ -37361,11 +35731,8 @@
       <c r="R306" t="s">
         <v>3819</v>
       </c>
-      <c r="S306" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="307" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>6221</v>
       </c>
@@ -37409,7 +35776,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="308" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>6222</v>
       </c>
@@ -37453,7 +35820,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="309" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>436</v>
       </c>
@@ -37505,11 +35872,8 @@
       <c r="R309" t="s">
         <v>3820</v>
       </c>
-      <c r="S309" t="s">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="310" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>438</v>
       </c>
@@ -37561,11 +35925,8 @@
       <c r="R310" t="s">
         <v>3821</v>
       </c>
-      <c r="S310" t="s">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="311" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>440</v>
       </c>
@@ -37618,7 +35979,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="312" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>441</v>
       </c>
@@ -37671,7 +36032,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="313" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>442</v>
       </c>
@@ -37723,11 +36084,8 @@
       <c r="R313" t="s">
         <v>3822</v>
       </c>
-      <c r="S313" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="314" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>6091</v>
       </c>
@@ -37735,7 +36093,7 @@
         <v>6523</v>
       </c>
     </row>
-    <row r="315" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>444</v>
       </c>
@@ -37787,11 +36145,8 @@
       <c r="R315" t="s">
         <v>2218</v>
       </c>
-      <c r="S315" t="s">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="316" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>446</v>
       </c>
@@ -37843,11 +36198,8 @@
       <c r="R316" t="s">
         <v>446</v>
       </c>
-      <c r="S316" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="317" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>447</v>
       </c>
@@ -37899,11 +36251,8 @@
       <c r="R317" t="s">
         <v>447</v>
       </c>
-      <c r="S317" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="318" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>448</v>
       </c>
@@ -37955,11 +36304,8 @@
       <c r="R318" t="s">
         <v>3823</v>
       </c>
-      <c r="S318" t="s">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="319" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>450</v>
       </c>
@@ -38011,11 +36357,8 @@
       <c r="R319" t="s">
         <v>3824</v>
       </c>
-      <c r="S319" t="s">
-        <v>4565</v>
-      </c>
-    </row>
-    <row r="320" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -38067,11 +36410,8 @@
       <c r="R320" t="s">
         <v>3825</v>
       </c>
-      <c r="S320" t="s">
-        <v>4566</v>
-      </c>
-    </row>
-    <row r="321" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>453</v>
       </c>
@@ -38123,11 +36463,8 @@
       <c r="R321" t="s">
         <v>3826</v>
       </c>
-      <c r="S321" t="s">
-        <v>4567</v>
-      </c>
-    </row>
-    <row r="322" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>455</v>
       </c>
@@ -38179,11 +36516,8 @@
       <c r="R322" t="s">
         <v>3827</v>
       </c>
-      <c r="S322" t="s">
-        <v>4568</v>
-      </c>
-    </row>
-    <row r="323" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>457</v>
       </c>
@@ -38235,11 +36569,8 @@
       <c r="R323" t="s">
         <v>3828</v>
       </c>
-      <c r="S323" t="s">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="324" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>459</v>
       </c>
@@ -38291,11 +36622,8 @@
       <c r="R324" t="s">
         <v>3829</v>
       </c>
-      <c r="S324" t="s">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="325" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>461</v>
       </c>
@@ -38347,11 +36675,8 @@
       <c r="R325" t="s">
         <v>3830</v>
       </c>
-      <c r="S325" t="s">
-        <v>4571</v>
-      </c>
-    </row>
-    <row r="326" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>463</v>
       </c>
@@ -38403,11 +36728,8 @@
       <c r="R326" t="s">
         <v>3831</v>
       </c>
-      <c r="S326" t="s">
-        <v>4572</v>
-      </c>
-    </row>
-    <row r="327" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>465</v>
       </c>
@@ -38459,11 +36781,8 @@
       <c r="R327" t="s">
         <v>3832</v>
       </c>
-      <c r="S327" t="s">
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="328" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>467</v>
       </c>
@@ -38515,16 +36834,13 @@
       <c r="R328" t="s">
         <v>3833</v>
       </c>
-      <c r="S328" t="s">
-        <v>4574</v>
-      </c>
-    </row>
-    <row r="329" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>6544</v>
       </c>
     </row>
-    <row r="330" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>469</v>
       </c>
@@ -38576,11 +36892,8 @@
       <c r="R330" t="s">
         <v>469</v>
       </c>
-      <c r="S330" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="331" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>470</v>
       </c>
@@ -38632,21 +36945,18 @@
       <c r="R331" t="s">
         <v>470</v>
       </c>
-      <c r="S331" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="332" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>6540</v>
       </c>
     </row>
-    <row r="333" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>6541</v>
       </c>
     </row>
-    <row r="334" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>471</v>
       </c>
@@ -38698,26 +37008,23 @@
       <c r="R334" t="s">
         <v>3834</v>
       </c>
-      <c r="S334" t="s">
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="335" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>6539</v>
       </c>
     </row>
-    <row r="336" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>6542</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>6543</v>
       </c>
     </row>
-    <row r="339" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>501</v>
       </c>
@@ -38772,11 +37079,8 @@
       <c r="R339" s="1" t="s">
         <v>5909</v>
       </c>
-      <c r="S339" s="1" t="s">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>502</v>
       </c>
@@ -38828,11 +37132,8 @@
       <c r="R340" t="s">
         <v>3835</v>
       </c>
-      <c r="S340" t="s">
-        <v>4576</v>
-      </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>1</v>
       </c>
@@ -38884,11 +37185,8 @@
       <c r="R341" t="s">
         <v>3836</v>
       </c>
-      <c r="S341" t="s">
-        <v>4577</v>
-      </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>505</v>
       </c>
@@ -38940,11 +37238,8 @@
       <c r="R342" t="s">
         <v>3837</v>
       </c>
-      <c r="S342" t="s">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>506</v>
       </c>
@@ -38996,11 +37291,8 @@
       <c r="R343" t="s">
         <v>3838</v>
       </c>
-      <c r="S343" t="s">
-        <v>4579</v>
-      </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>508</v>
       </c>
@@ -39052,11 +37344,8 @@
       <c r="R344" t="s">
         <v>3839</v>
       </c>
-      <c r="S344" t="s">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>510</v>
       </c>
@@ -39109,7 +37398,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>512</v>
       </c>
@@ -39162,7 +37451,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>514</v>
       </c>
@@ -39215,7 +37504,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>516</v>
       </c>
@@ -39268,7 +37557,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>518</v>
       </c>
@@ -39321,7 +37610,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>520</v>
       </c>
@@ -39374,7 +37663,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>522</v>
       </c>
@@ -39427,7 +37716,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>524</v>
       </c>
@@ -39480,7 +37769,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="353" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>526</v>
       </c>
@@ -39533,7 +37822,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="354" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>528</v>
       </c>
@@ -39586,7 +37875,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="355" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>529</v>
       </c>
@@ -39639,7 +37928,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="356" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>531</v>
       </c>
@@ -39692,7 +37981,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="357" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>533</v>
       </c>
@@ -39744,11 +38033,8 @@
       <c r="R357" t="s">
         <v>3849</v>
       </c>
-      <c r="S357" t="s">
-        <v>4593</v>
-      </c>
-    </row>
-    <row r="358" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>535</v>
       </c>
@@ -39800,11 +38086,8 @@
       <c r="R358" t="s">
         <v>3850</v>
       </c>
-      <c r="S358" t="s">
-        <v>4594</v>
-      </c>
-    </row>
-    <row r="359" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>537</v>
       </c>
@@ -39856,11 +38139,8 @@
       <c r="R359" t="s">
         <v>3851</v>
       </c>
-      <c r="S359" t="s">
-        <v>4595</v>
-      </c>
-    </row>
-    <row r="360" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>539</v>
       </c>
@@ -39912,11 +38192,8 @@
       <c r="R360" t="s">
         <v>3852</v>
       </c>
-      <c r="S360" t="s">
-        <v>4596</v>
-      </c>
-    </row>
-    <row r="361" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>541</v>
       </c>
@@ -39968,11 +38245,8 @@
       <c r="R361" t="s">
         <v>3853</v>
       </c>
-      <c r="S361" t="s">
-        <v>4597</v>
-      </c>
-    </row>
-    <row r="362" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>543</v>
       </c>
@@ -40024,11 +38298,8 @@
       <c r="R362" t="s">
         <v>3854</v>
       </c>
-      <c r="S362" t="s">
-        <v>4598</v>
-      </c>
-    </row>
-    <row r="363" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>545</v>
       </c>
@@ -40081,7 +38352,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="364" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>547</v>
       </c>
@@ -40134,7 +38405,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="365" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>549</v>
       </c>
@@ -40186,11 +38457,8 @@
       <c r="R365" t="s">
         <v>3855</v>
       </c>
-      <c r="S365" t="s">
-        <v>4601</v>
-      </c>
-    </row>
-    <row r="366" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>551</v>
       </c>
@@ -40243,7 +38511,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="367" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>553</v>
       </c>
@@ -40296,7 +38564,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="368" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>555</v>
       </c>
@@ -40349,7 +38617,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="369" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>557</v>
       </c>
@@ -40402,7 +38670,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="370" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>559</v>
       </c>
@@ -40455,7 +38723,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="371" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>561</v>
       </c>
@@ -40508,7 +38776,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="372" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>562</v>
       </c>
@@ -40560,11 +38828,8 @@
       <c r="R372" t="s">
         <v>562</v>
       </c>
-      <c r="S372" t="s">
-        <v>4608</v>
-      </c>
-    </row>
-    <row r="373" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>563</v>
       </c>
@@ -40616,11 +38881,8 @@
       <c r="R373" t="s">
         <v>563</v>
       </c>
-      <c r="S373" t="s">
-        <v>4609</v>
-      </c>
-    </row>
-    <row r="374" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>565</v>
       </c>
@@ -40673,7 +38935,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="375" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>567</v>
       </c>
@@ -40726,7 +38988,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="376" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>569</v>
       </c>
@@ -40779,7 +39041,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="377" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>571</v>
       </c>
@@ -40832,7 +39094,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="378" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>573</v>
       </c>
@@ -40885,7 +39147,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="379" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>575</v>
       </c>
@@ -40937,11 +39199,8 @@
       <c r="R379" t="s">
         <v>2257</v>
       </c>
-      <c r="S379" t="s">
-        <v>4615</v>
-      </c>
-    </row>
-    <row r="380" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>577</v>
       </c>
@@ -40994,7 +39253,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="381" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>578</v>
       </c>
@@ -41047,7 +39306,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="382" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>580</v>
       </c>
@@ -41100,7 +39359,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="383" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>582</v>
       </c>
@@ -41152,11 +39411,8 @@
       <c r="R383" t="s">
         <v>582</v>
       </c>
-      <c r="S383" t="s">
-        <v>4619</v>
-      </c>
-    </row>
-    <row r="384" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>584</v>
       </c>
@@ -41209,7 +39465,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="385" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>586</v>
       </c>
@@ -41262,7 +39518,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="386" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>587</v>
       </c>
@@ -41314,11 +39570,8 @@
       <c r="R386" t="s">
         <v>3861</v>
       </c>
-      <c r="S386" t="s">
-        <v>4622</v>
-      </c>
-    </row>
-    <row r="387" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>589</v>
       </c>
@@ -41370,11 +39623,8 @@
       <c r="R387" t="s">
         <v>3862</v>
       </c>
-      <c r="S387" t="s">
-        <v>4623</v>
-      </c>
-    </row>
-    <row r="388" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>591</v>
       </c>
@@ -41426,11 +39676,8 @@
       <c r="R388" t="s">
         <v>3863</v>
       </c>
-      <c r="S388" t="s">
-        <v>4624</v>
-      </c>
-    </row>
-    <row r="389" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>593</v>
       </c>
@@ -41483,7 +39730,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="390" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>595</v>
       </c>
@@ -41535,11 +39782,8 @@
       <c r="R390" t="s">
         <v>3865</v>
       </c>
-      <c r="S390" t="s">
-        <v>4626</v>
-      </c>
-    </row>
-    <row r="391" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>597</v>
       </c>
@@ -41591,11 +39835,8 @@
       <c r="R391" t="s">
         <v>597</v>
       </c>
-      <c r="S391" t="s">
-        <v>4627</v>
-      </c>
-    </row>
-    <row r="392" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>599</v>
       </c>
@@ -41647,11 +39888,8 @@
       <c r="R392" t="s">
         <v>3866</v>
       </c>
-      <c r="S392" t="s">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="393" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>601</v>
       </c>
@@ -41703,11 +39941,8 @@
       <c r="R393" t="s">
         <v>3867</v>
       </c>
-      <c r="S393" t="s">
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="394" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>603</v>
       </c>
@@ -41759,11 +39994,8 @@
       <c r="R394" t="s">
         <v>3868</v>
       </c>
-      <c r="S394" t="s">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="395" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>605</v>
       </c>
@@ -41816,7 +40048,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="396" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>607</v>
       </c>
@@ -41869,7 +40101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="397" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>609</v>
       </c>
@@ -41921,11 +40153,8 @@
       <c r="R397" t="s">
         <v>3869</v>
       </c>
-      <c r="S397" t="s">
-        <v>4633</v>
-      </c>
-    </row>
-    <row r="398" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>610</v>
       </c>
@@ -41977,11 +40206,8 @@
       <c r="R398" t="s">
         <v>1133</v>
       </c>
-      <c r="S398" t="s">
-        <v>4634</v>
-      </c>
-    </row>
-    <row r="399" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>611</v>
       </c>
@@ -42034,7 +40260,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="400" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>613</v>
       </c>
@@ -42086,11 +40312,8 @@
       <c r="R400" t="s">
         <v>613</v>
       </c>
-      <c r="S400" t="s">
-        <v>4636</v>
-      </c>
-    </row>
-    <row r="401" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>615</v>
       </c>
@@ -42142,11 +40365,8 @@
       <c r="R401" t="s">
         <v>615</v>
       </c>
-      <c r="S401" t="s">
-        <v>4637</v>
-      </c>
-    </row>
-    <row r="402" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>616</v>
       </c>
@@ -42198,11 +40418,8 @@
       <c r="R402" t="s">
         <v>616</v>
       </c>
-      <c r="S402" t="s">
-        <v>4638</v>
-      </c>
-    </row>
-    <row r="403" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>617</v>
       </c>
@@ -42255,7 +40472,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="404" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>619</v>
       </c>
@@ -42308,7 +40525,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="405" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>621</v>
       </c>
@@ -42361,7 +40578,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="406" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>623</v>
       </c>
@@ -42414,7 +40631,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="407" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>625</v>
       </c>
@@ -42467,7 +40684,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="408" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
         <v>627</v>
       </c>
@@ -42520,7 +40737,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="409" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>629</v>
       </c>
@@ -42573,7 +40790,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="410" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>631</v>
       </c>
@@ -42626,7 +40843,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="411" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>633</v>
       </c>
@@ -42678,11 +40895,8 @@
       <c r="R411" t="s">
         <v>633</v>
       </c>
-      <c r="S411" t="s">
-        <v>6578</v>
-      </c>
-    </row>
-    <row r="412" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="412" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>634</v>
       </c>
@@ -42735,7 +40949,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="413" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>636</v>
       </c>
@@ -42788,7 +41002,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="414" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>638</v>
       </c>
@@ -42841,7 +41055,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="415" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>640</v>
       </c>
@@ -42894,7 +41108,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="416" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>642</v>
       </c>
@@ -42946,11 +41160,8 @@
       <c r="R416" t="s">
         <v>3881</v>
       </c>
-      <c r="S416" t="s">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="417" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>644</v>
       </c>
@@ -43003,7 +41214,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="418" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>645</v>
       </c>
@@ -43056,7 +41267,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>646</v>
       </c>
@@ -43109,7 +41320,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="420" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>648</v>
       </c>
@@ -43161,11 +41372,8 @@
       <c r="R420" t="s">
         <v>3883</v>
       </c>
-      <c r="S420" t="s">
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="421" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>650</v>
       </c>
@@ -43218,7 +41426,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="422" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>652</v>
       </c>
@@ -43271,7 +41479,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="423" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>654</v>
       </c>
@@ -43324,7 +41532,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="424" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>656</v>
       </c>
@@ -43377,7 +41585,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="425" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>658</v>
       </c>
@@ -43429,11 +41637,8 @@
       <c r="R425" t="s">
         <v>3888</v>
       </c>
-      <c r="S425" t="s">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="426" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>660</v>
       </c>
@@ -43485,11 +41690,8 @@
       <c r="R426" t="s">
         <v>3889</v>
       </c>
-      <c r="S426" t="s">
-        <v>4661</v>
-      </c>
-    </row>
-    <row r="427" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>662</v>
       </c>
@@ -43542,7 +41744,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="428" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>664</v>
       </c>
@@ -43594,11 +41796,8 @@
       <c r="R428" t="s">
         <v>3891</v>
       </c>
-      <c r="S428" t="s">
-        <v>4663</v>
-      </c>
-    </row>
-    <row r="429" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>666</v>
       </c>
@@ -43650,11 +41849,8 @@
       <c r="R429" t="s">
         <v>3892</v>
       </c>
-      <c r="S429" t="s">
-        <v>4664</v>
-      </c>
-    </row>
-    <row r="430" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="430" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>668</v>
       </c>
@@ -43706,11 +41902,8 @@
       <c r="R430" t="s">
         <v>3893</v>
       </c>
-      <c r="S430" t="s">
-        <v>4665</v>
-      </c>
-    </row>
-    <row r="431" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>670</v>
       </c>
@@ -43763,7 +41956,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="432" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>672</v>
       </c>
@@ -43816,7 +42009,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="433" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>674</v>
       </c>
@@ -43868,11 +42061,8 @@
       <c r="R433" t="s">
         <v>3896</v>
       </c>
-      <c r="S433" t="s">
-        <v>4668</v>
-      </c>
-    </row>
-    <row r="434" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="434" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>675</v>
       </c>
@@ -43924,11 +42114,8 @@
       <c r="R434" t="s">
         <v>3897</v>
       </c>
-      <c r="S434" t="s">
-        <v>4669</v>
-      </c>
-    </row>
-    <row r="435" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="435" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>676</v>
       </c>
@@ -43980,11 +42167,8 @@
       <c r="R435" t="s">
         <v>3898</v>
       </c>
-      <c r="S435" t="s">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="436" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
         <v>678</v>
       </c>
@@ -44037,7 +42221,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="437" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>680</v>
       </c>
@@ -44090,7 +42274,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="438" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>682</v>
       </c>
@@ -44143,7 +42327,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="439" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>684</v>
       </c>
@@ -44196,7 +42380,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="440" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
         <v>686</v>
       </c>
@@ -44249,7 +42433,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="441" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>688</v>
       </c>
@@ -44302,7 +42486,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="442" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
         <v>689</v>
       </c>
@@ -44354,11 +42538,8 @@
       <c r="R442" t="s">
         <v>689</v>
       </c>
-      <c r="S442" t="s">
-        <v>4677</v>
-      </c>
-    </row>
-    <row r="443" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
         <v>691</v>
       </c>
@@ -44410,11 +42591,8 @@
       <c r="R443" t="s">
         <v>3900</v>
       </c>
-      <c r="S443" t="s">
-        <v>4678</v>
-      </c>
-    </row>
-    <row r="444" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="444" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>693</v>
       </c>
@@ -44467,7 +42645,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="445" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>695</v>
       </c>
@@ -44520,7 +42698,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="446" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>696</v>
       </c>
@@ -44572,11 +42750,8 @@
       <c r="R446" t="s">
         <v>3901</v>
       </c>
-      <c r="S446" t="s">
-        <v>4681</v>
-      </c>
-    </row>
-    <row r="447" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>697</v>
       </c>
@@ -44628,11 +42803,8 @@
       <c r="R447" t="s">
         <v>3902</v>
       </c>
-      <c r="S447" t="s">
-        <v>4682</v>
-      </c>
-    </row>
-    <row r="448" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>698</v>
       </c>
@@ -44685,7 +42857,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>700</v>
       </c>
@@ -44738,7 +42910,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="451" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>701</v>
       </c>
@@ -44793,11 +42965,8 @@
       <c r="R451" s="1" t="s">
         <v>5911</v>
       </c>
-      <c r="S451" s="1" t="s">
-        <v>6011</v>
-      </c>
-    </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452" t="s">
         <v>6092</v>
@@ -44805,11 +42974,8 @@
       <c r="R452" t="s">
         <v>6113</v>
       </c>
-      <c r="S452" t="s">
-        <v>6092</v>
-      </c>
-    </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453" t="s">
         <v>6093</v>
@@ -44818,7 +42984,7 @@
         <v>6524</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>702</v>
       </c>
@@ -44870,11 +43036,8 @@
       <c r="R454" t="s">
         <v>2307</v>
       </c>
-      <c r="S454" t="s">
-        <v>4685</v>
-      </c>
-    </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>703</v>
       </c>
@@ -44926,11 +43089,8 @@
       <c r="R455" t="s">
         <v>3904</v>
       </c>
-      <c r="S455" t="s">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>705</v>
       </c>
@@ -44982,11 +43142,8 @@
       <c r="R456" t="s">
         <v>3905</v>
       </c>
-      <c r="S456" t="s">
-        <v>4687</v>
-      </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>707</v>
       </c>
@@ -45038,11 +43195,8 @@
       <c r="R457" t="s">
         <v>2310</v>
       </c>
-      <c r="S457" t="s">
-        <v>4688</v>
-      </c>
-    </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>708</v>
       </c>
@@ -45095,7 +43249,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>6094</v>
       </c>
@@ -45103,7 +43257,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>709</v>
       </c>
@@ -45155,11 +43309,8 @@
       <c r="R460" t="s">
         <v>3251</v>
       </c>
-      <c r="S460" t="s">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
         <v>711</v>
       </c>
@@ -45211,11 +43362,8 @@
       <c r="R461" t="s">
         <v>2312</v>
       </c>
-      <c r="S461" t="s">
-        <v>4691</v>
-      </c>
-    </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>712</v>
       </c>
@@ -45267,22 +43415,16 @@
       <c r="R462" t="s">
         <v>3907</v>
       </c>
-      <c r="S462" t="s">
-        <v>4692</v>
-      </c>
-    </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>6095</v>
       </c>
       <c r="G463" t="s">
         <v>6526</v>
       </c>
-      <c r="S463" t="s">
-        <v>6526</v>
-      </c>
-    </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
         <v>714</v>
       </c>
@@ -45334,11 +43476,8 @@
       <c r="R464" t="s">
         <v>3908</v>
       </c>
-      <c r="S464" t="s">
-        <v>4693</v>
-      </c>
-    </row>
-    <row r="465" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="465" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
         <v>6188</v>
       </c>
@@ -45379,7 +43518,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="466" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>716</v>
       </c>
@@ -45431,22 +43570,16 @@
       <c r="R466" t="s">
         <v>2314</v>
       </c>
-      <c r="S466" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="467" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="467" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>6096</v>
       </c>
       <c r="G467" t="s">
         <v>6527</v>
       </c>
-      <c r="S467" t="s">
-        <v>6527</v>
-      </c>
-    </row>
-    <row r="468" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="468" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>718</v>
       </c>
@@ -45498,22 +43631,16 @@
       <c r="R468" t="s">
         <v>3909</v>
       </c>
-      <c r="S468" t="s">
-        <v>4695</v>
-      </c>
-    </row>
-    <row r="469" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>6097</v>
       </c>
       <c r="G469" t="s">
         <v>6528</v>
       </c>
-      <c r="S469" t="s">
-        <v>6528</v>
-      </c>
-    </row>
-    <row r="470" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="470" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>720</v>
       </c>
@@ -45565,11 +43692,8 @@
       <c r="R470" t="s">
         <v>3910</v>
       </c>
-      <c r="S470" t="s">
-        <v>4696</v>
-      </c>
-    </row>
-    <row r="471" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>722</v>
       </c>
@@ -45621,22 +43745,16 @@
       <c r="R471" t="s">
         <v>3911</v>
       </c>
-      <c r="S471" t="s">
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="472" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>6098</v>
       </c>
       <c r="G472" t="s">
         <v>6529</v>
       </c>
-      <c r="S472" t="s">
-        <v>6529</v>
-      </c>
-    </row>
-    <row r="473" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="473" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>6198</v>
       </c>
@@ -45677,7 +43795,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="474" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>724</v>
       </c>
@@ -45730,7 +43848,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="475" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>6099</v>
       </c>
@@ -45770,11 +43888,8 @@
       <c r="R475" t="s">
         <v>6218</v>
       </c>
-      <c r="S475" t="s">
-        <v>6099</v>
-      </c>
-    </row>
-    <row r="476" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>726</v>
       </c>
@@ -45826,11 +43941,8 @@
       <c r="R476" t="s">
         <v>3913</v>
       </c>
-      <c r="S476" t="s">
-        <v>4699</v>
-      </c>
-    </row>
-    <row r="477" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>728</v>
       </c>
@@ -45882,22 +43994,16 @@
       <c r="R477" t="s">
         <v>3914</v>
       </c>
-      <c r="S477" t="s">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="478" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="478" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>6100</v>
       </c>
       <c r="G478" t="s">
         <v>6530</v>
       </c>
-      <c r="S478" t="s">
-        <v>6530</v>
-      </c>
-    </row>
-    <row r="479" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="479" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
         <v>730</v>
       </c>
@@ -45949,11 +44055,8 @@
       <c r="R479" t="s">
         <v>3915</v>
       </c>
-      <c r="S479" t="s">
-        <v>4701</v>
-      </c>
-    </row>
-    <row r="480" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="480" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>731</v>
       </c>
@@ -46005,22 +44108,16 @@
       <c r="R480" t="s">
         <v>3916</v>
       </c>
-      <c r="S480" t="s">
-        <v>4702</v>
-      </c>
-    </row>
-    <row r="481" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>6101</v>
       </c>
       <c r="G481" t="s">
         <v>6531</v>
       </c>
-      <c r="S481" t="s">
-        <v>6531</v>
-      </c>
-    </row>
-    <row r="482" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="482" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>733</v>
       </c>
@@ -46072,22 +44169,16 @@
       <c r="R482" t="s">
         <v>3917</v>
       </c>
-      <c r="S482" t="s">
-        <v>4703</v>
-      </c>
-    </row>
-    <row r="483" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="483" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>6102</v>
       </c>
       <c r="G483" t="s">
         <v>6532</v>
       </c>
-      <c r="S483" t="s">
-        <v>6532</v>
-      </c>
-    </row>
-    <row r="484" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="484" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>735</v>
       </c>
@@ -46139,11 +44230,8 @@
       <c r="R484" t="s">
         <v>3918</v>
       </c>
-      <c r="S484" t="s">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="485" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>737</v>
       </c>
@@ -46195,11 +44283,8 @@
       <c r="R485" t="s">
         <v>737</v>
       </c>
-      <c r="S485" t="s">
-        <v>4705</v>
-      </c>
-    </row>
-    <row r="486" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="486" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>738</v>
       </c>
@@ -46251,21 +44336,18 @@
       <c r="R486" t="s">
         <v>2325</v>
       </c>
-      <c r="S486" t="s">
-        <v>4706</v>
-      </c>
-    </row>
-    <row r="487" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>6535</v>
       </c>
     </row>
-    <row r="488" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>6536</v>
       </c>
     </row>
-    <row r="489" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>740</v>
       </c>
@@ -46318,12 +44400,12 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="490" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>6537</v>
       </c>
     </row>
-    <row r="491" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>6289</v>
       </c>
@@ -46367,7 +44449,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="492" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>6290</v>
       </c>
@@ -46411,7 +44493,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="493" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>6291</v>
       </c>
@@ -46455,7 +44537,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="494" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>6292</v>
       </c>
@@ -46499,7 +44581,7 @@
         <v>6342</v>
       </c>
     </row>
-    <row r="495" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
         <v>213</v>
       </c>
@@ -46551,11 +44633,8 @@
       <c r="R495" t="s">
         <v>3919</v>
       </c>
-      <c r="S495" t="s">
-        <v>4708</v>
-      </c>
-    </row>
-    <row r="496" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="496" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>743</v>
       </c>
@@ -46608,7 +44687,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>745</v>
       </c>
@@ -46661,7 +44740,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
         <v>746</v>
       </c>
@@ -46713,11 +44792,8 @@
       <c r="R498" t="s">
         <v>3921</v>
       </c>
-      <c r="S498" t="s">
-        <v>4710</v>
-      </c>
-    </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>748</v>
       </c>
@@ -46769,11 +44845,8 @@
       <c r="R499" t="s">
         <v>3922</v>
       </c>
-      <c r="S499" t="s">
-        <v>4711</v>
-      </c>
-    </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>6103</v>
       </c>
@@ -46781,7 +44854,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="502" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>750</v>
       </c>
@@ -46837,7 +44910,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>751</v>
       </c>
@@ -46890,7 +44963,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
         <v>753</v>
       </c>
@@ -46943,7 +45016,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
         <v>755</v>
       </c>
@@ -46996,7 +45069,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="508" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>757</v>
       </c>
@@ -47052,7 +45125,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>758</v>
       </c>
@@ -47104,11 +45177,8 @@
       <c r="R509" t="s">
         <v>2231</v>
       </c>
-      <c r="S509" t="s">
-        <v>4715</v>
-      </c>
-    </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>760</v>
       </c>
@@ -47160,11 +45230,8 @@
       <c r="R510" t="s">
         <v>3925</v>
       </c>
-      <c r="S510" t="s">
-        <v>4716</v>
-      </c>
-    </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>762</v>
       </c>
@@ -47216,11 +45283,8 @@
       <c r="R511" t="s">
         <v>3926</v>
       </c>
-      <c r="S511" t="s">
-        <v>4717</v>
-      </c>
-    </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>764</v>
       </c>
@@ -47272,11 +45336,8 @@
       <c r="R512" t="s">
         <v>3927</v>
       </c>
-      <c r="S512" t="s">
-        <v>4718</v>
-      </c>
-    </row>
-    <row r="513" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="513" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>766</v>
       </c>
@@ -47328,11 +45389,8 @@
       <c r="R513" t="s">
         <v>3928</v>
       </c>
-      <c r="S513" t="s">
-        <v>4719</v>
-      </c>
-    </row>
-    <row r="514" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="514" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>768</v>
       </c>
@@ -47384,11 +45442,8 @@
       <c r="R514" t="s">
         <v>3929</v>
       </c>
-      <c r="S514" t="s">
-        <v>4720</v>
-      </c>
-    </row>
-    <row r="515" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="515" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>770</v>
       </c>
@@ -47440,11 +45495,8 @@
       <c r="R515" t="s">
         <v>3930</v>
       </c>
-      <c r="S515" t="s">
-        <v>4721</v>
-      </c>
-    </row>
-    <row r="516" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="516" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
         <v>772</v>
       </c>
@@ -47496,11 +45548,8 @@
       <c r="R516" t="s">
         <v>3931</v>
       </c>
-      <c r="S516" t="s">
-        <v>4722</v>
-      </c>
-    </row>
-    <row r="517" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="517" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
         <v>774</v>
       </c>
@@ -47552,11 +45601,8 @@
       <c r="R517" t="s">
         <v>3932</v>
       </c>
-      <c r="S517" t="s">
-        <v>4723</v>
-      </c>
-    </row>
-    <row r="518" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="518" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
         <v>776</v>
       </c>
@@ -47608,11 +45654,8 @@
       <c r="R518" t="s">
         <v>2339</v>
       </c>
-      <c r="S518" t="s">
-        <v>4724</v>
-      </c>
-    </row>
-    <row r="519" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="519" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>778</v>
       </c>
@@ -47664,11 +45707,8 @@
       <c r="R519" t="s">
         <v>3933</v>
       </c>
-      <c r="S519" t="s">
-        <v>4725</v>
-      </c>
-    </row>
-    <row r="520" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="520" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>780</v>
       </c>
@@ -47720,11 +45760,8 @@
       <c r="R520" t="s">
         <v>2251</v>
       </c>
-      <c r="S520" t="s">
-        <v>4726</v>
-      </c>
-    </row>
-    <row r="521" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="521" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
         <v>782</v>
       </c>
@@ -47776,11 +45813,8 @@
       <c r="R521" t="s">
         <v>2341</v>
       </c>
-      <c r="S521" t="s">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="522" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="522" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>784</v>
       </c>
@@ -47832,11 +45866,8 @@
       <c r="R522" t="s">
         <v>3934</v>
       </c>
-      <c r="S522" t="s">
-        <v>4728</v>
-      </c>
-    </row>
-    <row r="523" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="523" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>786</v>
       </c>
@@ -47888,11 +45919,8 @@
       <c r="R523" t="s">
         <v>3935</v>
       </c>
-      <c r="S523" t="s">
-        <v>4729</v>
-      </c>
-    </row>
-    <row r="524" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="524" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>788</v>
       </c>
@@ -47944,11 +45972,8 @@
       <c r="R524" t="s">
         <v>2343</v>
       </c>
-      <c r="S524" t="s">
-        <v>4730</v>
-      </c>
-    </row>
-    <row r="525" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="525" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>790</v>
       </c>
@@ -48000,11 +46025,8 @@
       <c r="R525" t="s">
         <v>790</v>
       </c>
-      <c r="S525" t="s">
-        <v>4731</v>
-      </c>
-    </row>
-    <row r="526" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="526" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>792</v>
       </c>
@@ -48056,11 +46078,8 @@
       <c r="R526" t="s">
         <v>2344</v>
       </c>
-      <c r="S526" t="s">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="527" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="527" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>794</v>
       </c>
@@ -48112,11 +46131,8 @@
       <c r="R527" t="s">
         <v>794</v>
       </c>
-      <c r="S527" t="s">
-        <v>4733</v>
-      </c>
-    </row>
-    <row r="528" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="528" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>796</v>
       </c>
@@ -48168,11 +46184,8 @@
       <c r="R528" t="s">
         <v>3936</v>
       </c>
-      <c r="S528" t="s">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="529" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="529" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>798</v>
       </c>
@@ -48224,11 +46237,8 @@
       <c r="R529" t="s">
         <v>798</v>
       </c>
-      <c r="S529" t="s">
-        <v>4735</v>
-      </c>
-    </row>
-    <row r="530" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="530" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>800</v>
       </c>
@@ -48280,11 +46290,8 @@
       <c r="R530" t="s">
         <v>3937</v>
       </c>
-      <c r="S530" t="s">
-        <v>4736</v>
-      </c>
-    </row>
-    <row r="531" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="531" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>802</v>
       </c>
@@ -48336,11 +46343,8 @@
       <c r="R531" t="s">
         <v>3651</v>
       </c>
-      <c r="S531" t="s">
-        <v>4737</v>
-      </c>
-    </row>
-    <row r="532" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="532" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>803</v>
       </c>
@@ -48392,11 +46396,8 @@
       <c r="R532" t="s">
         <v>2272</v>
       </c>
-      <c r="S532" t="s">
-        <v>4738</v>
-      </c>
-    </row>
-    <row r="533" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="533" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>805</v>
       </c>
@@ -48448,11 +46449,8 @@
       <c r="R533" t="s">
         <v>3938</v>
       </c>
-      <c r="S533" t="s">
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="534" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="534" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>807</v>
       </c>
@@ -48504,11 +46502,8 @@
       <c r="R534" t="s">
         <v>807</v>
       </c>
-      <c r="S534" t="s">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="535" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="535" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>809</v>
       </c>
@@ -48560,11 +46555,8 @@
       <c r="R535" t="s">
         <v>3939</v>
       </c>
-      <c r="S535" t="s">
-        <v>4741</v>
-      </c>
-    </row>
-    <row r="536" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="536" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>811</v>
       </c>
@@ -48616,11 +46608,8 @@
       <c r="R536" t="s">
         <v>811</v>
       </c>
-      <c r="S536" t="s">
-        <v>4742</v>
-      </c>
-    </row>
-    <row r="537" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="537" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>813</v>
       </c>
@@ -48672,11 +46661,8 @@
       <c r="R537" t="s">
         <v>3940</v>
       </c>
-      <c r="S537" t="s">
-        <v>4743</v>
-      </c>
-    </row>
-    <row r="538" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="538" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>815</v>
       </c>
@@ -48728,11 +46714,8 @@
       <c r="R538" t="s">
         <v>3941</v>
       </c>
-      <c r="S538" t="s">
-        <v>4744</v>
-      </c>
-    </row>
-    <row r="539" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="539" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>817</v>
       </c>
@@ -48784,11 +46767,8 @@
       <c r="R539" t="s">
         <v>817</v>
       </c>
-      <c r="S539" t="s">
-        <v>4745</v>
-      </c>
-    </row>
-    <row r="540" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="540" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>819</v>
       </c>
@@ -48840,11 +46820,8 @@
       <c r="R540" t="s">
         <v>2354</v>
       </c>
-      <c r="S540" t="s">
-        <v>4746</v>
-      </c>
-    </row>
-    <row r="541" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="541" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>820</v>
       </c>
@@ -48896,11 +46873,8 @@
       <c r="R541" t="s">
         <v>821</v>
       </c>
-      <c r="S541" t="s">
-        <v>4747</v>
-      </c>
-    </row>
-    <row r="542" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="542" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>822</v>
       </c>
@@ -48952,11 +46926,8 @@
       <c r="R542" t="s">
         <v>3942</v>
       </c>
-      <c r="S542" t="s">
-        <v>4748</v>
-      </c>
-    </row>
-    <row r="543" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="543" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>824</v>
       </c>
@@ -49008,11 +46979,8 @@
       <c r="R543" t="s">
         <v>3943</v>
       </c>
-      <c r="S543" t="s">
-        <v>4749</v>
-      </c>
-    </row>
-    <row r="544" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="544" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>826</v>
       </c>
@@ -49064,11 +47032,8 @@
       <c r="R544" t="s">
         <v>2358</v>
       </c>
-      <c r="S544" t="s">
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="545" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="545" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>828</v>
       </c>
@@ -49120,11 +47085,8 @@
       <c r="R545" t="s">
         <v>828</v>
       </c>
-      <c r="S545" t="s">
-        <v>4751</v>
-      </c>
-    </row>
-    <row r="546" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="546" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>830</v>
       </c>
@@ -49176,11 +47138,8 @@
       <c r="R546" t="s">
         <v>830</v>
       </c>
-      <c r="S546" t="s">
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="547" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="547" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>832</v>
       </c>
@@ -49232,11 +47191,8 @@
       <c r="R547" t="s">
         <v>2359</v>
       </c>
-      <c r="S547" t="s">
-        <v>4753</v>
-      </c>
-    </row>
-    <row r="548" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="548" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>833</v>
       </c>
@@ -49288,11 +47244,8 @@
       <c r="R548" t="s">
         <v>2360</v>
       </c>
-      <c r="S548" t="s">
-        <v>4754</v>
-      </c>
-    </row>
-    <row r="549" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="549" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>834</v>
       </c>
@@ -49344,11 +47297,8 @@
       <c r="R549" t="s">
         <v>2306</v>
       </c>
-      <c r="S549" t="s">
-        <v>4755</v>
-      </c>
-    </row>
-    <row r="550" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="550" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>836</v>
       </c>
@@ -49399,9 +47349,6 @@
       </c>
       <c r="R550" t="s">
         <v>836</v>
-      </c>
-      <c r="S550" t="s">
-        <v>4756</v>
       </c>
     </row>
   </sheetData>
